--- a/AQ_Budgets/5721_AQ_formatted.xlsx
+++ b/AQ_Budgets/5721_AQ_formatted.xlsx
@@ -189,6 +189,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2638425" cy="1790700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -54983,5 +55013,6 @@
     <mergeCell ref="A2048:C2048"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AQ_Budgets/5721_AQ_formatted.xlsx
+++ b/AQ_Budgets/5721_AQ_formatted.xlsx
@@ -85,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -101,7 +101,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -111,6 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -545,7 +548,7 @@
     <row r="3" ht="23.25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>June 25, 2024</t>
+          <t>July 18, 2024</t>
         </is>
       </c>
     </row>
@@ -661,11 +664,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0</v>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H8" s="8" t="inlineStr"/>
     </row>
@@ -690,11 +697,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>0</v>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H9" s="8" t="inlineStr"/>
     </row>
@@ -706,7 +717,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
@@ -714,12 +725,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
     </row>
     <row r="11">
@@ -798,7 +805,7 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>printer / fax machine</t>
+          <t>PRINTER / FAX MACHINE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -806,11 +813,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>0</v>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H14" s="8" t="inlineStr"/>
     </row>
@@ -822,7 +833,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
@@ -830,12 +841,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -846,7 +853,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" s="6" t="inlineStr">
@@ -854,12 +861,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1026,7 +1029,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
@@ -1034,12 +1037,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
       <c r="H23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1137,7 +1136,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle, Dolly</t>
+          <t>TRASH RECEPTACLE, DOLLY</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1161,7 +1160,7 @@
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1185,7 +1184,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
@@ -1193,12 +1192,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E29" s="7" t="inlineStr"/>
+      <c r="F29" s="7" t="inlineStr"/>
       <c r="H29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1209,7 +1204,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
@@ -1217,12 +1212,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E30" s="7" t="inlineStr"/>
+      <c r="F30" s="7" t="inlineStr"/>
       <c r="H30" s="8" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1291,7 +1282,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
@@ -1299,12 +1290,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33" s="7" t="inlineStr"/>
+      <c r="F33" s="7" t="inlineStr"/>
       <c r="H33" s="8" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1315,7 +1302,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
@@ -1323,12 +1310,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E34" s="7" t="inlineStr"/>
+      <c r="F34" s="7" t="inlineStr"/>
       <c r="H34" s="8" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1339,7 +1322,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
@@ -1347,12 +1330,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E35" s="7" t="inlineStr"/>
+      <c r="F35" s="7" t="inlineStr"/>
       <c r="H35" s="8" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1363,7 +1342,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C36" s="6" t="inlineStr">
@@ -1371,12 +1350,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E36" s="7" t="inlineStr"/>
+      <c r="F36" s="7" t="inlineStr"/>
       <c r="H36" s="8" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1442,11 +1417,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>0</v>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H41" s="8" t="inlineStr"/>
     </row>
@@ -1471,11 +1450,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>0</v>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H42" s="8" t="inlineStr"/>
     </row>
@@ -1492,7 +1475,7 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>beverage COOLER</t>
+          <t>BEVERAGE COOLER</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1516,7 +1499,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr">
@@ -1524,12 +1507,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E44" s="7" t="inlineStr"/>
+      <c r="F44" s="7" t="inlineStr"/>
       <c r="H44" s="8" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1545,7 +1524,7 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1627,7 +1606,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C48" s="6" t="inlineStr">
@@ -1635,12 +1614,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E48" s="7" t="inlineStr"/>
+      <c r="F48" s="7" t="inlineStr"/>
       <c r="H48" s="8" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1651,7 +1626,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
@@ -1659,12 +1634,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E49" s="7" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr"/>
       <c r="H49" s="8" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1767,7 +1738,7 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>Can Rack</t>
+          <t>CAN RACK</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1826,7 +1797,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C56" s="6" t="inlineStr">
@@ -1834,12 +1805,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E56" s="7" t="inlineStr"/>
+      <c r="F56" s="7" t="inlineStr"/>
       <c r="H56" s="8" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1937,7 +1904,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
@@ -1945,12 +1912,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E60" s="7" t="inlineStr"/>
+      <c r="F60" s="7" t="inlineStr"/>
       <c r="H60" s="8" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1961,7 +1924,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -1969,12 +1932,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E61" s="7" t="inlineStr"/>
+      <c r="F61" s="7" t="inlineStr"/>
       <c r="H61" s="8" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1990,7 +1949,7 @@
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2101,7 +2060,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" s="6" t="inlineStr">
@@ -2109,12 +2068,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E66" s="7" t="inlineStr"/>
+      <c r="F66" s="7" t="inlineStr"/>
       <c r="H66" s="8" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2130,7 +2085,7 @@
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2212,7 +2167,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C70" s="6" t="inlineStr">
@@ -2220,12 +2175,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E70" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E70" s="7" t="inlineStr"/>
+      <c r="F70" s="7" t="inlineStr"/>
       <c r="H70" s="8" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2236,7 +2187,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -2244,12 +2195,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E71" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E71" s="7" t="inlineStr"/>
+      <c r="F71" s="7" t="inlineStr"/>
       <c r="H71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2294,7 +2241,7 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2446,7 +2393,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
@@ -2454,12 +2401,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E80" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E80" s="7" t="inlineStr"/>
+      <c r="F80" s="7" t="inlineStr"/>
       <c r="H80" s="8" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2528,7 +2471,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -2536,12 +2479,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E83" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E83" s="7" t="inlineStr"/>
+      <c r="F83" s="7" t="inlineStr"/>
       <c r="H83" s="8" t="inlineStr"/>
     </row>
     <row r="84">
@@ -2552,7 +2491,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
@@ -2560,12 +2499,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E84" s="7" t="inlineStr"/>
+      <c r="F84" s="7" t="inlineStr"/>
       <c r="H84" s="8" t="inlineStr"/>
     </row>
     <row r="85">
@@ -2576,7 +2511,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -2584,12 +2519,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E85" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E85" s="7" t="inlineStr"/>
+      <c r="F85" s="7" t="inlineStr"/>
       <c r="H85" s="8" t="inlineStr"/>
     </row>
     <row r="87">
@@ -2671,7 +2602,7 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle, Dolly</t>
+          <t>TRASH RECEPTACLE, DOLLY</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2695,7 +2626,7 @@
       </c>
       <c r="C92" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2772,7 +2703,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
@@ -2780,12 +2711,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E95" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E95" s="7" t="inlineStr"/>
+      <c r="F95" s="7" t="inlineStr"/>
       <c r="H95" s="8" t="inlineStr"/>
     </row>
     <row r="96">
@@ -2830,7 +2757,7 @@
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>Portion Scale</t>
+          <t>PORTION SCALE</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,7 +2810,7 @@
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle, Dolly</t>
+          <t>TRASH RECEPTACLE, DOLLY</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2907,7 +2834,7 @@
       </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2955,7 +2882,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C102" s="6" t="inlineStr">
@@ -2963,12 +2890,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E102" s="7" t="inlineStr"/>
+      <c r="F102" s="7" t="inlineStr"/>
       <c r="H102" s="8" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3063,7 +2986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C107" s="6" t="inlineStr">
@@ -3071,12 +2994,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E107" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E107" s="7" t="inlineStr"/>
+      <c r="F107" s="7" t="inlineStr"/>
       <c r="H107" s="8" t="inlineStr"/>
     </row>
     <row r="108">
@@ -3189,7 +3108,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C112" s="6" t="inlineStr">
@@ -3197,12 +3116,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E112" s="7" t="inlineStr"/>
+      <c r="F112" s="7" t="inlineStr"/>
       <c r="H112" s="8" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3341,7 +3256,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
@@ -3349,12 +3264,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E119" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E119" s="7" t="inlineStr"/>
+      <c r="F119" s="7" t="inlineStr"/>
       <c r="H119" s="8" t="inlineStr"/>
     </row>
     <row r="120">
@@ -3365,7 +3276,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C120" s="6" t="inlineStr">
@@ -3373,12 +3284,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E120" s="7" t="inlineStr"/>
+      <c r="F120" s="7" t="inlineStr"/>
       <c r="H120" s="8" t="inlineStr"/>
     </row>
     <row r="121">
@@ -3389,7 +3296,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C121" s="6" t="inlineStr">
@@ -3397,12 +3304,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E121" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E121" s="7" t="inlineStr"/>
+      <c r="F121" s="7" t="inlineStr"/>
       <c r="H121" s="8" t="inlineStr"/>
     </row>
     <row r="122">
@@ -3447,7 +3350,7 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>Knife Sanitizer</t>
+          <t>KNIFE SANITIZER</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3539,7 +3442,7 @@
       </c>
       <c r="C127" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle, Dolly</t>
+          <t>TRASH RECEPTACLE, DOLLY</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3563,7 +3466,7 @@
       </c>
       <c r="C128" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3587,7 +3490,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C129" s="6" t="inlineStr">
@@ -3595,12 +3498,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E129" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E129" s="7" t="inlineStr"/>
+      <c r="F129" s="7" t="inlineStr"/>
       <c r="H129" s="8" t="inlineStr"/>
     </row>
     <row r="130">
@@ -3738,7 +3637,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C135" s="6" t="inlineStr">
@@ -3746,12 +3645,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E135" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E135" s="7" t="inlineStr"/>
+      <c r="F135" s="7" t="inlineStr"/>
       <c r="H135" s="8" t="inlineStr"/>
     </row>
     <row r="136">
@@ -3762,7 +3657,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C136" s="6" t="inlineStr">
@@ -3770,12 +3665,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E136" s="7" t="inlineStr"/>
+      <c r="F136" s="7" t="inlineStr"/>
       <c r="H136" s="8" t="inlineStr"/>
     </row>
     <row r="137">
@@ -3820,7 +3711,7 @@
       </c>
       <c r="C138" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3972,7 +3863,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C145" s="6" t="inlineStr">
@@ -3980,12 +3871,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E145" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E145" s="7" t="inlineStr"/>
+      <c r="F145" s="7" t="inlineStr"/>
       <c r="H145" s="8" t="inlineStr"/>
     </row>
     <row r="146">
@@ -4030,7 +3917,7 @@
       </c>
       <c r="C147" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4083,7 +3970,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C149" s="6" t="inlineStr">
@@ -4091,12 +3978,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E149" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E149" s="7" t="inlineStr"/>
+      <c r="F149" s="7" t="inlineStr"/>
       <c r="H149" s="8" t="inlineStr"/>
     </row>
     <row r="150">
@@ -4107,7 +3990,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C150" s="6" t="inlineStr">
@@ -4115,12 +3998,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E150" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E150" s="7" t="inlineStr"/>
+      <c r="F150" s="7" t="inlineStr"/>
       <c r="H150" s="8" t="inlineStr"/>
     </row>
     <row r="151">
@@ -4189,7 +4068,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C153" s="6" t="inlineStr">
@@ -4197,12 +4076,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E153" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E153" s="7" t="inlineStr"/>
+      <c r="F153" s="7" t="inlineStr"/>
       <c r="H153" s="8" t="inlineStr"/>
     </row>
     <row r="154">
@@ -4213,7 +4088,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C154" s="6" t="inlineStr">
@@ -4221,12 +4096,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E154" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E154" s="7" t="inlineStr"/>
+      <c r="F154" s="7" t="inlineStr"/>
       <c r="H154" s="8" t="inlineStr"/>
     </row>
     <row r="155">
@@ -4237,7 +4108,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C155" s="6" t="inlineStr">
@@ -4245,12 +4116,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E155" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E155" s="7" t="inlineStr"/>
+      <c r="F155" s="7" t="inlineStr"/>
       <c r="H155" s="8" t="inlineStr"/>
     </row>
     <row r="157">
@@ -4361,7 +4228,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C162" s="6" t="inlineStr">
@@ -4369,12 +4236,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E162" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E162" s="7" t="inlineStr"/>
+      <c r="F162" s="7" t="inlineStr"/>
       <c r="H162" s="8" t="inlineStr"/>
     </row>
     <row r="163">
@@ -4385,7 +4248,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C163" s="6" t="inlineStr">
@@ -4393,12 +4256,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E163" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E163" s="7" t="inlineStr"/>
+      <c r="F163" s="7" t="inlineStr"/>
       <c r="H163" s="8" t="inlineStr"/>
     </row>
     <row r="164">
@@ -4542,7 +4401,7 @@
       </c>
       <c r="C170" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4566,7 +4425,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C171" s="6" t="inlineStr">
@@ -4574,12 +4433,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E171" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E171" s="7" t="inlineStr"/>
+      <c r="F171" s="7" t="inlineStr"/>
       <c r="H171" s="8" t="inlineStr"/>
     </row>
     <row r="172">
@@ -4590,7 +4445,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C172" s="6" t="inlineStr">
@@ -4598,12 +4453,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E172" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E172" s="7" t="inlineStr"/>
+      <c r="F172" s="7" t="inlineStr"/>
       <c r="H172" s="8" t="inlineStr"/>
     </row>
     <row r="173">
@@ -4811,7 +4662,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C182" s="6" t="inlineStr">
@@ -4819,12 +4670,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E182" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E182" s="7" t="inlineStr"/>
+      <c r="F182" s="7" t="inlineStr"/>
       <c r="H182" s="8" t="inlineStr"/>
     </row>
     <row r="183">
@@ -4835,7 +4682,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C183" s="6" t="inlineStr">
@@ -4843,12 +4690,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E183" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E183" s="7" t="inlineStr"/>
+      <c r="F183" s="7" t="inlineStr"/>
       <c r="H183" s="8" t="inlineStr"/>
     </row>
     <row r="184">
@@ -4951,7 +4794,7 @@
       </c>
       <c r="C187" s="6" t="inlineStr">
         <is>
-          <t>Knife Sanitizer</t>
+          <t>KNIFE SANITIZER</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4990,7 +4833,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C189" s="6" t="inlineStr">
@@ -4998,12 +4841,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E189" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E189" s="7" t="inlineStr"/>
+      <c r="F189" s="7" t="inlineStr"/>
       <c r="H189" s="8" t="inlineStr"/>
     </row>
     <row r="190">
@@ -5067,7 +4906,7 @@
       </c>
       <c r="C192" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle, Dolly</t>
+          <t>TRASH RECEPTACLE, DOLLY</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5091,7 +4930,7 @@
       </c>
       <c r="C193" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5144,7 +4983,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C195" s="6" t="inlineStr">
@@ -5152,12 +4991,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E195" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E195" s="7" t="inlineStr"/>
+      <c r="F195" s="7" t="inlineStr"/>
       <c r="H195" s="8" t="inlineStr"/>
     </row>
     <row r="196">
@@ -5168,7 +5003,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C196" s="6" t="inlineStr">
@@ -5176,12 +5011,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E196" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E196" s="7" t="inlineStr"/>
+      <c r="F196" s="7" t="inlineStr"/>
       <c r="H196" s="8" t="inlineStr"/>
     </row>
     <row r="197">
@@ -5403,7 +5234,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C207" s="6" t="inlineStr">
@@ -5411,12 +5242,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E207" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E207" s="7" t="inlineStr"/>
+      <c r="F207" s="7" t="inlineStr"/>
       <c r="H207" s="8" t="inlineStr"/>
     </row>
     <row r="208">
@@ -5476,7 +5303,7 @@
       </c>
       <c r="C210" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5505,7 +5332,7 @@
       </c>
       <c r="C211" s="6" t="inlineStr">
         <is>
-          <t>Portion Scale</t>
+          <t>PORTION SCALE</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5534,7 +5361,7 @@
       </c>
       <c r="C212" s="6" t="inlineStr">
         <is>
-          <t>Can Opener</t>
+          <t>CAN OPENER</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5573,7 +5400,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C214" s="6" t="inlineStr">
@@ -5581,12 +5408,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E214" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E214" s="7" t="inlineStr"/>
+      <c r="F214" s="7" t="inlineStr"/>
       <c r="H214" s="8" t="inlineStr"/>
     </row>
     <row r="215">
@@ -5597,7 +5420,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C215" s="6" t="inlineStr">
@@ -5605,12 +5428,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E215" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E215" s="7" t="inlineStr"/>
+      <c r="F215" s="7" t="inlineStr"/>
       <c r="H215" s="8" t="inlineStr"/>
     </row>
     <row r="216">
@@ -5703,7 +5522,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C219" s="6" t="inlineStr">
@@ -5711,12 +5530,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E219" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E219" s="7" t="inlineStr"/>
+      <c r="F219" s="7" t="inlineStr"/>
       <c r="H219" s="8" t="inlineStr"/>
     </row>
     <row r="220">
@@ -5727,7 +5542,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C220" s="6" t="inlineStr">
@@ -5735,12 +5550,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E220" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E220" s="7" t="inlineStr"/>
+      <c r="F220" s="7" t="inlineStr"/>
       <c r="H220" s="8" t="inlineStr"/>
     </row>
     <row r="222">
@@ -5798,7 +5609,7 @@
       </c>
       <c r="C225" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5950,7 +5761,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C232" s="6" t="inlineStr">
@@ -5958,12 +5769,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E232" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E232" s="7" t="inlineStr"/>
+      <c r="F232" s="7" t="inlineStr"/>
       <c r="H232" s="8" t="inlineStr"/>
     </row>
     <row r="233">
@@ -6008,7 +5815,7 @@
       </c>
       <c r="C234" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6061,7 +5868,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C236" s="6" t="inlineStr">
@@ -6069,12 +5876,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E236" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E236" s="7" t="inlineStr"/>
+      <c r="F236" s="7" t="inlineStr"/>
       <c r="H236" s="8" t="inlineStr"/>
     </row>
     <row r="237">
@@ -6085,7 +5888,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C237" s="6" t="inlineStr">
@@ -6093,12 +5896,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E237" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E237" s="7" t="inlineStr"/>
+      <c r="F237" s="7" t="inlineStr"/>
       <c r="H237" s="8" t="inlineStr"/>
     </row>
     <row r="238">
@@ -6266,7 +6065,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C245" s="6" t="inlineStr">
@@ -6274,12 +6073,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E245" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F245" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E245" s="7" t="inlineStr"/>
+      <c r="F245" s="7" t="inlineStr"/>
       <c r="H245" s="8" t="inlineStr"/>
     </row>
     <row r="246">
@@ -6290,7 +6085,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C246" s="6" t="inlineStr">
@@ -6298,12 +6093,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E246" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F246" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E246" s="7" t="inlineStr"/>
+      <c r="F246" s="7" t="inlineStr"/>
       <c r="H246" s="8" t="inlineStr"/>
     </row>
     <row r="247">
@@ -6314,7 +6105,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C247" s="6" t="inlineStr">
@@ -6322,12 +6113,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E247" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F247" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E247" s="7" t="inlineStr"/>
+      <c r="F247" s="7" t="inlineStr"/>
       <c r="H247" s="8" t="inlineStr"/>
     </row>
     <row r="248">
@@ -6338,7 +6125,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C248" s="6" t="inlineStr">
@@ -6346,12 +6133,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E248" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F248" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E248" s="7" t="inlineStr"/>
+      <c r="F248" s="7" t="inlineStr"/>
       <c r="H248" s="8" t="inlineStr"/>
     </row>
     <row r="249">
@@ -6362,7 +6145,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C249" s="6" t="inlineStr">
@@ -6370,12 +6153,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E249" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F249" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E249" s="7" t="inlineStr"/>
+      <c r="F249" s="7" t="inlineStr"/>
       <c r="H249" s="8" t="inlineStr"/>
     </row>
     <row r="250">
@@ -6386,7 +6165,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C250" s="6" t="inlineStr">
@@ -6394,12 +6173,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E250" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F250" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E250" s="7" t="inlineStr"/>
+      <c r="F250" s="7" t="inlineStr"/>
       <c r="H250" s="8" t="inlineStr"/>
     </row>
     <row r="251">
@@ -6410,7 +6185,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C251" s="6" t="inlineStr">
@@ -6418,12 +6193,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E251" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F251" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E251" s="7" t="inlineStr"/>
+      <c r="F251" s="7" t="inlineStr"/>
       <c r="H251" s="8" t="inlineStr"/>
     </row>
     <row r="252">
@@ -6434,7 +6205,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C252" s="6" t="inlineStr">
@@ -6442,12 +6213,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E252" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F252" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E252" s="7" t="inlineStr"/>
+      <c r="F252" s="7" t="inlineStr"/>
       <c r="H252" s="8" t="inlineStr"/>
     </row>
     <row r="254">
@@ -6476,7 +6243,7 @@
       </c>
       <c r="C256" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6677,7 +6444,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C266" s="6" t="inlineStr">
@@ -6685,12 +6452,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E266" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F266" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E266" s="7" t="inlineStr"/>
+      <c r="F266" s="7" t="inlineStr"/>
       <c r="H266" s="8" t="inlineStr"/>
     </row>
     <row r="267">
@@ -6765,7 +6528,7 @@
       </c>
       <c r="C270" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6833,7 +6596,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C273" s="6" t="inlineStr">
@@ -6841,12 +6604,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E273" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F273" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E273" s="7" t="inlineStr"/>
+      <c r="F273" s="7" t="inlineStr"/>
       <c r="H273" s="8" t="inlineStr"/>
     </row>
     <row r="274">
@@ -6857,7 +6616,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C274" s="6" t="inlineStr">
@@ -6865,12 +6624,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E274" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F274" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E274" s="7" t="inlineStr"/>
+      <c r="F274" s="7" t="inlineStr"/>
       <c r="H274" s="8" t="inlineStr"/>
     </row>
     <row r="275">
@@ -6910,7 +6665,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C276" s="6" t="inlineStr">
@@ -6918,12 +6673,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E276" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F276" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E276" s="7" t="inlineStr"/>
+      <c r="F276" s="7" t="inlineStr"/>
       <c r="H276" s="8" t="inlineStr"/>
     </row>
     <row r="277">
@@ -6934,7 +6685,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C277" s="6" t="inlineStr">
@@ -6942,12 +6693,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E277" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F277" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E277" s="7" t="inlineStr"/>
+      <c r="F277" s="7" t="inlineStr"/>
       <c r="H277" s="8" t="inlineStr"/>
     </row>
     <row r="278">
@@ -6958,7 +6705,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C278" s="6" t="inlineStr">
@@ -6966,12 +6713,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E278" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F278" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E278" s="7" t="inlineStr"/>
+      <c r="F278" s="7" t="inlineStr"/>
       <c r="H278" s="8" t="inlineStr"/>
     </row>
     <row r="279">
@@ -6982,7 +6725,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C279" s="6" t="inlineStr">
@@ -6990,12 +6733,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E279" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F279" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E279" s="7" t="inlineStr"/>
+      <c r="F279" s="7" t="inlineStr"/>
       <c r="H279" s="8" t="inlineStr"/>
     </row>
     <row r="281">
@@ -7056,11 +6795,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E284" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F284" s="7" t="n">
-        <v>0</v>
+      <c r="E284" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F284" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H284" s="8" t="inlineStr"/>
     </row>
@@ -7085,11 +6828,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E285" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F285" s="7" t="n">
-        <v>0</v>
+      <c r="E285" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F285" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H285" s="8" t="inlineStr"/>
     </row>
@@ -7114,11 +6861,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E286" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F286" s="7" t="n">
-        <v>0</v>
+      <c r="E286" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F286" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H286" s="8" t="inlineStr"/>
     </row>
@@ -7130,7 +6881,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C287" s="6" t="inlineStr">
@@ -7138,12 +6889,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E287" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F287" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E287" s="7" t="inlineStr"/>
+      <c r="F287" s="7" t="inlineStr"/>
       <c r="H287" s="8" t="inlineStr"/>
     </row>
     <row r="288">
@@ -7167,11 +6914,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E288" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F288" s="7" t="n">
-        <v>0</v>
+      <c r="E288" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F288" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H288" s="8" t="inlineStr"/>
     </row>
@@ -7220,11 +6971,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F290" s="7" t="n">
-        <v>0</v>
+      <c r="E290" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F290" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H290" s="8" t="inlineStr"/>
     </row>
@@ -7236,7 +6991,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C291" s="6" t="inlineStr">
@@ -7244,12 +6999,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E291" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F291" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E291" s="7" t="inlineStr"/>
+      <c r="F291" s="7" t="inlineStr"/>
       <c r="H291" s="8" t="inlineStr"/>
     </row>
     <row r="292">
@@ -7260,7 +7011,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C292" s="6" t="inlineStr">
@@ -7268,12 +7019,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E292" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F292" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E292" s="7" t="inlineStr"/>
+      <c r="F292" s="7" t="inlineStr"/>
       <c r="H292" s="8" t="inlineStr"/>
     </row>
     <row r="293">
@@ -7297,11 +7044,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E293" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F293" s="7" t="n">
-        <v>0</v>
+      <c r="E293" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F293" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H293" s="8" t="inlineStr"/>
     </row>
@@ -7326,11 +7077,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E294" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F294" s="7" t="n">
-        <v>0</v>
+      <c r="E294" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F294" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H294" s="8" t="inlineStr"/>
     </row>
@@ -7342,7 +7097,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C295" s="6" t="inlineStr">
@@ -7350,12 +7105,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E295" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F295" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E295" s="7" t="inlineStr"/>
+      <c r="F295" s="7" t="inlineStr"/>
       <c r="H295" s="8" t="inlineStr"/>
     </row>
     <row r="296">
@@ -7366,7 +7117,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C296" s="6" t="inlineStr">
@@ -7374,12 +7125,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E296" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F296" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E296" s="7" t="inlineStr"/>
+      <c r="F296" s="7" t="inlineStr"/>
       <c r="H296" s="8" t="inlineStr"/>
     </row>
     <row r="297">
@@ -7390,7 +7137,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C297" s="6" t="inlineStr">
@@ -7398,12 +7145,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E297" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F297" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E297" s="7" t="inlineStr"/>
+      <c r="F297" s="7" t="inlineStr"/>
       <c r="H297" s="8" t="inlineStr"/>
     </row>
     <row r="299">
@@ -7573,7 +7316,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C307" s="6" t="inlineStr">
@@ -7581,12 +7324,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E307" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F307" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E307" s="7" t="inlineStr"/>
+      <c r="F307" s="7" t="inlineStr"/>
       <c r="H307" s="8" t="inlineStr"/>
     </row>
     <row r="308">
@@ -7684,7 +7423,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C311" s="6" t="inlineStr">
@@ -7692,12 +7431,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E311" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F311" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E311" s="7" t="inlineStr"/>
+      <c r="F311" s="7" t="inlineStr"/>
       <c r="H311" s="8" t="inlineStr"/>
     </row>
     <row r="312">
@@ -7708,7 +7443,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C312" s="6" t="inlineStr">
@@ -7716,12 +7451,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E312" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F312" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E312" s="7" t="inlineStr"/>
+      <c r="F312" s="7" t="inlineStr"/>
       <c r="H312" s="8" t="inlineStr"/>
     </row>
     <row r="313">
@@ -7781,7 +7512,7 @@
       </c>
       <c r="C315" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7932,7 +7663,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C321" s="6" t="inlineStr">
@@ -7940,12 +7671,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E321" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F321" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E321" s="7" t="inlineStr"/>
+      <c r="F321" s="7" t="inlineStr"/>
       <c r="H321" s="8" t="inlineStr"/>
     </row>
     <row r="322">
@@ -8287,7 +8014,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C339" s="6" t="inlineStr">
@@ -8295,12 +8022,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E339" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F339" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E339" s="7" t="inlineStr"/>
+      <c r="F339" s="7" t="inlineStr"/>
       <c r="H339" s="8" t="inlineStr"/>
     </row>
     <row r="340">
@@ -8311,7 +8034,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C340" s="6" t="inlineStr">
@@ -8319,12 +8042,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E340" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F340" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E340" s="7" t="inlineStr"/>
+      <c r="F340" s="7" t="inlineStr"/>
       <c r="H340" s="8" t="inlineStr"/>
     </row>
     <row r="341">
@@ -9330,7 +9049,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C393" s="6" t="inlineStr">
@@ -9338,12 +9057,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E393" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F393" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E393" s="7" t="inlineStr"/>
+      <c r="F393" s="7" t="inlineStr"/>
       <c r="H393" s="8" t="inlineStr"/>
     </row>
     <row r="394">
@@ -9354,7 +9069,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C394" s="6" t="inlineStr">
@@ -9362,12 +9077,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E394" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F394" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E394" s="7" t="inlineStr"/>
+      <c r="F394" s="7" t="inlineStr"/>
       <c r="H394" s="8" t="inlineStr"/>
     </row>
     <row r="396">
@@ -9587,7 +9298,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C406" s="6" t="inlineStr">
@@ -9595,12 +9306,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E406" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F406" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E406" s="7" t="inlineStr"/>
+      <c r="F406" s="7" t="inlineStr"/>
       <c r="H406" s="8" t="inlineStr"/>
     </row>
     <row r="407">
@@ -9689,7 +9396,7 @@
       </c>
       <c r="C410" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -9762,7 +9469,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C413" s="6" t="inlineStr">
@@ -9770,12 +9477,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E413" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F413" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E413" s="7" t="inlineStr"/>
+      <c r="F413" s="7" t="inlineStr"/>
       <c r="H413" s="8" t="inlineStr"/>
     </row>
     <row r="414">
@@ -9786,7 +9489,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C414" s="6" t="inlineStr">
@@ -9794,12 +9497,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E414" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F414" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E414" s="7" t="inlineStr"/>
+      <c r="F414" s="7" t="inlineStr"/>
       <c r="H414" s="8" t="inlineStr"/>
     </row>
     <row r="415">
@@ -9903,7 +9602,7 @@
       </c>
       <c r="C419" s="6" t="inlineStr">
         <is>
-          <t>Portion Scale</t>
+          <t>PORTION SCALE</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -9996,7 +9695,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C423" s="6" t="inlineStr">
@@ -10004,12 +9703,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E423" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F423" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E423" s="7" t="inlineStr"/>
+      <c r="F423" s="7" t="inlineStr"/>
       <c r="H423" s="8" t="inlineStr"/>
     </row>
     <row r="424">
@@ -10176,7 +9871,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C430" s="6" t="inlineStr">
@@ -10184,12 +9879,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E430" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F430" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E430" s="7" t="inlineStr"/>
+      <c r="F430" s="7" t="inlineStr"/>
       <c r="H430" s="8" t="inlineStr"/>
     </row>
     <row r="431">
@@ -10200,7 +9891,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C431" s="6" t="inlineStr">
@@ -10208,12 +9899,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E431" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F431" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E431" s="7" t="inlineStr"/>
+      <c r="F431" s="7" t="inlineStr"/>
       <c r="H431" s="8" t="inlineStr"/>
     </row>
     <row r="432">
@@ -10273,7 +9960,7 @@
       </c>
       <c r="C434" s="6" t="inlineStr">
         <is>
-          <t>Portion Scale</t>
+          <t>PORTION SCALE</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -10326,7 +10013,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C436" s="6" t="inlineStr">
@@ -10334,12 +10021,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E436" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F436" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E436" s="7" t="inlineStr"/>
+      <c r="F436" s="7" t="inlineStr"/>
       <c r="H436" s="8" t="inlineStr"/>
     </row>
     <row r="437">
@@ -10350,7 +10033,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C437" s="6" t="inlineStr">
@@ -10358,12 +10041,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E437" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F437" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E437" s="7" t="inlineStr"/>
+      <c r="F437" s="7" t="inlineStr"/>
       <c r="H437" s="8" t="inlineStr"/>
     </row>
     <row r="438">
@@ -10423,7 +10102,7 @@
       </c>
       <c r="C440" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -10476,7 +10155,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C442" s="6" t="inlineStr">
@@ -10484,12 +10163,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E442" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F442" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E442" s="7" t="inlineStr"/>
+      <c r="F442" s="7" t="inlineStr"/>
       <c r="H442" s="8" t="inlineStr"/>
     </row>
     <row r="443">
@@ -10500,7 +10175,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C443" s="6" t="inlineStr">
@@ -10508,12 +10183,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E443" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F443" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E443" s="7" t="inlineStr"/>
+      <c r="F443" s="7" t="inlineStr"/>
       <c r="H443" s="8" t="inlineStr"/>
     </row>
     <row r="444">
@@ -10641,7 +10312,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C449" s="6" t="inlineStr">
@@ -10649,12 +10320,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E449" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F449" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E449" s="7" t="inlineStr"/>
+      <c r="F449" s="7" t="inlineStr"/>
       <c r="H449" s="8" t="inlineStr"/>
     </row>
     <row r="450">
@@ -10665,7 +10332,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C450" s="6" t="inlineStr">
@@ -10673,12 +10340,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E450" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F450" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E450" s="7" t="inlineStr"/>
+      <c r="F450" s="7" t="inlineStr"/>
       <c r="H450" s="8" t="inlineStr"/>
     </row>
     <row r="451">
@@ -10776,7 +10439,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C454" s="6" t="inlineStr">
@@ -10784,12 +10447,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E454" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F454" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E454" s="7" t="inlineStr"/>
+      <c r="F454" s="7" t="inlineStr"/>
       <c r="H454" s="8" t="inlineStr"/>
     </row>
     <row r="455">
@@ -10800,7 +10459,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C455" s="6" t="inlineStr">
@@ -10808,12 +10467,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E455" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F455" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E455" s="7" t="inlineStr"/>
+      <c r="F455" s="7" t="inlineStr"/>
       <c r="H455" s="8" t="inlineStr"/>
     </row>
     <row r="457">
@@ -10954,7 +10609,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C464" s="6" t="inlineStr">
@@ -10962,12 +10617,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E464" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F464" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E464" s="7" t="inlineStr"/>
+      <c r="F464" s="7" t="inlineStr"/>
       <c r="H464" s="8" t="inlineStr"/>
     </row>
     <row r="465">
@@ -11710,7 +11361,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C504" s="6" t="inlineStr">
@@ -11718,12 +11369,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E504" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F504" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E504" s="7" t="inlineStr"/>
+      <c r="F504" s="7" t="inlineStr"/>
       <c r="H504" s="8" t="inlineStr"/>
     </row>
     <row r="505">
@@ -11826,7 +11473,7 @@
       </c>
       <c r="C508" s="6" t="inlineStr">
         <is>
-          <t>Hot Food Well Unit, Drop-In, Electric</t>
+          <t>HOT FOOD WELL UNIT, DROP-IN, ELECTRIC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -11895,7 +11542,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C512" s="6" t="inlineStr">
@@ -11903,12 +11550,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E512" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F512" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E512" s="7" t="inlineStr"/>
+      <c r="F512" s="7" t="inlineStr"/>
       <c r="H512" s="8" t="inlineStr"/>
     </row>
     <row r="513">
@@ -12035,7 +11678,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C517" s="6" t="inlineStr">
@@ -12043,12 +11686,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E517" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F517" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E517" s="7" t="inlineStr"/>
+      <c r="F517" s="7" t="inlineStr"/>
       <c r="H517" s="8" t="inlineStr"/>
     </row>
     <row r="518">
@@ -12222,7 +11861,7 @@
       </c>
       <c r="C526" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -12290,7 +11929,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C529" s="6" t="inlineStr">
@@ -12298,12 +11937,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E529" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F529" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E529" s="7" t="inlineStr"/>
+      <c r="F529" s="7" t="inlineStr"/>
       <c r="H529" s="8" t="inlineStr"/>
     </row>
     <row r="530">
@@ -12833,7 +12468,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C559" s="6" t="inlineStr">
@@ -12841,12 +12476,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E559" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F559" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E559" s="7" t="inlineStr"/>
+      <c r="F559" s="7" t="inlineStr"/>
       <c r="H559" s="8" t="inlineStr"/>
     </row>
     <row r="560">
@@ -13064,7 +12695,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C571" s="6" t="inlineStr">
@@ -13072,12 +12703,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E571" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F571" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E571" s="7" t="inlineStr"/>
+      <c r="F571" s="7" t="inlineStr"/>
       <c r="H571" s="8" t="inlineStr"/>
     </row>
     <row r="572">
@@ -13088,7 +12715,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C572" s="6" t="inlineStr">
@@ -13096,12 +12723,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E572" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F572" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E572" s="7" t="inlineStr"/>
+      <c r="F572" s="7" t="inlineStr"/>
       <c r="H572" s="8" t="inlineStr"/>
     </row>
     <row r="573">
@@ -13423,7 +13046,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C590" s="6" t="inlineStr">
@@ -13431,12 +13054,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E590" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F590" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E590" s="7" t="inlineStr"/>
+      <c r="F590" s="7" t="inlineStr"/>
       <c r="H590" s="8" t="inlineStr"/>
     </row>
     <row r="591">
@@ -14057,7 +13676,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C624" s="6" t="inlineStr">
@@ -14065,12 +13684,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E624" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F624" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E624" s="7" t="inlineStr"/>
+      <c r="F624" s="7" t="inlineStr"/>
       <c r="H624" s="8" t="inlineStr"/>
     </row>
     <row r="625">
@@ -14081,7 +13696,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C625" s="6" t="inlineStr">
@@ -14089,12 +13704,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E625" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F625" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E625" s="7" t="inlineStr"/>
+      <c r="F625" s="7" t="inlineStr"/>
       <c r="H625" s="8" t="inlineStr"/>
     </row>
     <row r="626">
@@ -14279,7 +13890,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C632" s="6" t="inlineStr">
@@ -14287,12 +13898,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E632" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F632" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E632" s="7" t="inlineStr"/>
+      <c r="F632" s="7" t="inlineStr"/>
       <c r="H632" s="8" t="inlineStr"/>
     </row>
     <row r="633">
@@ -14390,7 +13997,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C636" s="6" t="inlineStr">
@@ -14398,12 +14005,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E636" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F636" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E636" s="7" t="inlineStr"/>
+      <c r="F636" s="7" t="inlineStr"/>
       <c r="H636" s="8" t="inlineStr"/>
     </row>
     <row r="637">
@@ -14414,7 +14017,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C637" s="6" t="inlineStr">
@@ -14422,12 +14025,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E637" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F637" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E637" s="7" t="inlineStr"/>
+      <c r="F637" s="7" t="inlineStr"/>
       <c r="H637" s="8" t="inlineStr"/>
     </row>
     <row r="638">
@@ -14864,7 +14463,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C657" s="6" t="inlineStr">
@@ -14872,12 +14471,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E657" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F657" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E657" s="7" t="inlineStr"/>
+      <c r="F657" s="7" t="inlineStr"/>
       <c r="H657" s="8" t="inlineStr"/>
     </row>
     <row r="658">
@@ -14888,7 +14483,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C658" s="6" t="inlineStr">
@@ -14896,12 +14491,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E658" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F658" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E658" s="7" t="inlineStr"/>
+      <c r="F658" s="7" t="inlineStr"/>
       <c r="H658" s="8" t="inlineStr"/>
     </row>
     <row r="659">
@@ -14976,7 +14567,7 @@
       </c>
       <c r="C662" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -15227,7 +14818,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C675" s="6" t="inlineStr">
@@ -15235,12 +14826,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E675" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F675" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E675" s="7" t="inlineStr"/>
+      <c r="F675" s="7" t="inlineStr"/>
       <c r="H675" s="8" t="inlineStr"/>
     </row>
     <row r="676">
@@ -15338,7 +14925,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C679" s="6" t="inlineStr">
@@ -15346,12 +14933,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E679" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F679" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E679" s="7" t="inlineStr"/>
+      <c r="F679" s="7" t="inlineStr"/>
       <c r="H679" s="8" t="inlineStr"/>
     </row>
     <row r="680">
@@ -15362,7 +14945,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C680" s="6" t="inlineStr">
@@ -15370,12 +14953,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E680" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F680" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E680" s="7" t="inlineStr"/>
+      <c r="F680" s="7" t="inlineStr"/>
       <c r="H680" s="8" t="inlineStr"/>
     </row>
     <row r="681">
@@ -15489,7 +15068,7 @@
       </c>
       <c r="C685" s="6" t="inlineStr">
         <is>
-          <t>Pass-Thru Refrigerator</t>
+          <t>PASS-THRU REFRIGERATOR</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -15603,7 +15182,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C692" s="6" t="inlineStr">
@@ -15611,12 +15190,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E692" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F692" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E692" s="7" t="inlineStr"/>
+      <c r="F692" s="7" t="inlineStr"/>
       <c r="H692" s="8" t="inlineStr"/>
     </row>
     <row r="693">
@@ -15627,7 +15202,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C693" s="6" t="inlineStr">
@@ -15635,12 +15210,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E693" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F693" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E693" s="7" t="inlineStr"/>
+      <c r="F693" s="7" t="inlineStr"/>
       <c r="H693" s="8" t="inlineStr"/>
     </row>
     <row r="694">
@@ -15651,7 +15222,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C694" s="6" t="inlineStr">
@@ -15659,12 +15230,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E694" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F694" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E694" s="7" t="inlineStr"/>
+      <c r="F694" s="7" t="inlineStr"/>
       <c r="H694" s="8" t="inlineStr"/>
     </row>
     <row r="696">
@@ -15844,7 +15411,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C704" s="6" t="inlineStr">
@@ -15852,12 +15419,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E704" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F704" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E704" s="7" t="inlineStr"/>
+      <c r="F704" s="7" t="inlineStr"/>
       <c r="H704" s="8" t="inlineStr"/>
     </row>
     <row r="705">
@@ -15868,7 +15431,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C705" s="6" t="inlineStr">
@@ -15876,12 +15439,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E705" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F705" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E705" s="7" t="inlineStr"/>
+      <c r="F705" s="7" t="inlineStr"/>
       <c r="H705" s="8" t="inlineStr"/>
     </row>
     <row r="706">
@@ -16016,7 +15575,7 @@
       </c>
       <c r="C713" s="6" t="inlineStr">
         <is>
-          <t>Mobile Refrigerator Cabinet</t>
+          <t>MOBILE REFRIGERATOR CABINET</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -16143,7 +15702,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C719" s="6" t="inlineStr">
@@ -16151,12 +15710,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E719" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F719" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E719" s="7" t="inlineStr"/>
+      <c r="F719" s="7" t="inlineStr"/>
       <c r="H719" s="8" t="inlineStr"/>
     </row>
     <row r="720">
@@ -16268,11 +15823,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E724" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F724" s="7" t="n">
-        <v>0</v>
+      <c r="E724" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F724" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H724" s="8" t="inlineStr"/>
     </row>
@@ -16284,7 +15843,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C725" s="6" t="inlineStr">
@@ -16292,12 +15851,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E725" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F725" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E725" s="7" t="inlineStr"/>
+      <c r="F725" s="7" t="inlineStr"/>
       <c r="H725" s="8" t="inlineStr"/>
     </row>
     <row r="726">
@@ -16308,7 +15863,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C726" s="6" t="inlineStr">
@@ -16316,12 +15871,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E726" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F726" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E726" s="7" t="inlineStr"/>
+      <c r="F726" s="7" t="inlineStr"/>
       <c r="H726" s="8" t="inlineStr"/>
     </row>
     <row r="727">
@@ -16523,7 +16074,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C736" s="6" t="inlineStr">
@@ -16531,12 +16082,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E736" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F736" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E736" s="7" t="inlineStr"/>
+      <c r="F736" s="7" t="inlineStr"/>
       <c r="H736" s="8" t="inlineStr"/>
     </row>
     <row r="737">
@@ -16674,7 +16221,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C742" s="6" t="inlineStr">
@@ -16682,12 +16229,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E742" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F742" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E742" s="7" t="inlineStr"/>
+      <c r="F742" s="7" t="inlineStr"/>
       <c r="H742" s="8" t="inlineStr"/>
     </row>
     <row r="743">
@@ -16698,7 +16241,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C743" s="6" t="inlineStr">
@@ -16706,12 +16249,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E743" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F743" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E743" s="7" t="inlineStr"/>
+      <c r="F743" s="7" t="inlineStr"/>
       <c r="H743" s="8" t="inlineStr"/>
     </row>
     <row r="744">
@@ -16872,7 +16411,7 @@
       </c>
       <c r="C749" s="6" t="inlineStr">
         <is>
-          <t>Reach-In Freezer</t>
+          <t>REACH-IN FREEZER</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -17089,7 +16628,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C761" s="6" t="inlineStr">
@@ -17097,12 +16636,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E761" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F761" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E761" s="7" t="inlineStr"/>
+      <c r="F761" s="7" t="inlineStr"/>
       <c r="H761" s="8" t="inlineStr"/>
     </row>
     <row r="762">
@@ -17126,11 +16661,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E762" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F762" s="7" t="n">
-        <v>0</v>
+      <c r="E762" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F762" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H762" s="8" t="inlineStr"/>
     </row>
@@ -17235,7 +16774,7 @@
       </c>
       <c r="C767" s="6" t="inlineStr">
         <is>
-          <t>Mobile Refrigerator Cabinet</t>
+          <t>MOBILE REFRIGERATOR CABINET</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -17289,7 +16828,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C770" s="6" t="inlineStr">
@@ -17297,12 +16836,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E770" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F770" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E770" s="7" t="inlineStr"/>
+      <c r="F770" s="7" t="inlineStr"/>
       <c r="H770" s="8" t="inlineStr"/>
     </row>
     <row r="772">
@@ -17427,7 +16962,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C778" s="6" t="inlineStr">
@@ -17435,12 +16970,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E778" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F778" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E778" s="7" t="inlineStr"/>
+      <c r="F778" s="7" t="inlineStr"/>
       <c r="H778" s="8" t="inlineStr"/>
     </row>
     <row r="779">
@@ -17548,7 +17079,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C783" s="6" t="inlineStr">
@@ -17556,12 +17087,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E783" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F783" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E783" s="7" t="inlineStr"/>
+      <c r="F783" s="7" t="inlineStr"/>
       <c r="H783" s="8" t="inlineStr"/>
     </row>
     <row r="784">
@@ -17572,7 +17099,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C784" s="6" t="inlineStr">
@@ -17580,12 +17107,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E784" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F784" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E784" s="7" t="inlineStr"/>
+      <c r="F784" s="7" t="inlineStr"/>
       <c r="H784" s="8" t="inlineStr"/>
     </row>
     <row r="785">
@@ -17654,7 +17177,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C787" s="6" t="inlineStr">
@@ -17662,12 +17185,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E787" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F787" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E787" s="7" t="inlineStr"/>
+      <c r="F787" s="7" t="inlineStr"/>
       <c r="H787" s="8" t="inlineStr"/>
     </row>
     <row r="788">
@@ -17776,7 +17295,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C792" s="6" t="inlineStr">
@@ -17784,12 +17303,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E792" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F792" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E792" s="7" t="inlineStr"/>
+      <c r="F792" s="7" t="inlineStr"/>
       <c r="H792" s="8" t="inlineStr"/>
     </row>
     <row r="793">
@@ -17882,7 +17397,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C796" s="6" t="inlineStr">
@@ -17890,12 +17405,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E796" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F796" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E796" s="7" t="inlineStr"/>
+      <c r="F796" s="7" t="inlineStr"/>
       <c r="H796" s="8" t="inlineStr"/>
     </row>
     <row r="797">
@@ -17906,7 +17417,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C797" s="6" t="inlineStr">
@@ -17914,12 +17425,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E797" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F797" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E797" s="7" t="inlineStr"/>
+      <c r="F797" s="7" t="inlineStr"/>
       <c r="H797" s="8" t="inlineStr"/>
     </row>
     <row r="798">
@@ -17993,7 +17500,7 @@
       </c>
       <c r="C800" s="6" t="inlineStr">
         <is>
-          <t>SILVER Soak Sink</t>
+          <t>SILVER SOAK SINK</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -18042,7 +17549,7 @@
       </c>
       <c r="C802" s="6" t="inlineStr">
         <is>
-          <t>Hose Reel</t>
+          <t>HOSE REEL</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -18066,7 +17573,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C803" s="6" t="inlineStr">
@@ -18074,12 +17581,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E803" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F803" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E803" s="7" t="inlineStr"/>
+      <c r="F803" s="7" t="inlineStr"/>
       <c r="H803" s="8" t="inlineStr"/>
     </row>
     <row r="804">
@@ -18168,7 +17671,7 @@
       </c>
       <c r="C807" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -18309,7 +17812,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C813" s="6" t="inlineStr">
@@ -18317,12 +17820,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E813" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F813" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E813" s="7" t="inlineStr"/>
+      <c r="F813" s="7" t="inlineStr"/>
       <c r="H813" s="8" t="inlineStr"/>
     </row>
     <row r="814">
@@ -18479,7 +17978,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C820" s="6" t="inlineStr">
@@ -18487,12 +17986,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E820" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F820" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E820" s="7" t="inlineStr"/>
+      <c r="F820" s="7" t="inlineStr"/>
       <c r="H820" s="8" t="inlineStr"/>
     </row>
     <row r="821">
@@ -18630,7 +18125,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C826" s="6" t="inlineStr">
@@ -18638,12 +18133,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E826" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F826" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E826" s="7" t="inlineStr"/>
+      <c r="F826" s="7" t="inlineStr"/>
       <c r="H826" s="8" t="inlineStr"/>
     </row>
     <row r="827">
@@ -18654,7 +18145,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C827" s="6" t="inlineStr">
@@ -18662,12 +18153,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E827" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F827" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E827" s="7" t="inlineStr"/>
+      <c r="F827" s="7" t="inlineStr"/>
       <c r="H827" s="8" t="inlineStr"/>
     </row>
     <row r="828">
@@ -18678,7 +18165,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C828" s="6" t="inlineStr">
@@ -18686,12 +18173,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E828" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F828" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E828" s="7" t="inlineStr"/>
+      <c r="F828" s="7" t="inlineStr"/>
       <c r="H828" s="8" t="inlineStr"/>
     </row>
     <row r="829">
@@ -18755,7 +18238,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C831" s="6" t="inlineStr">
@@ -18763,12 +18246,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E831" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F831" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E831" s="7" t="inlineStr"/>
+      <c r="F831" s="7" t="inlineStr"/>
       <c r="H831" s="8" t="inlineStr"/>
     </row>
     <row r="832">
@@ -18808,7 +18287,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C833" s="6" t="inlineStr">
@@ -18816,12 +18295,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E833" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F833" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E833" s="7" t="inlineStr"/>
+      <c r="F833" s="7" t="inlineStr"/>
       <c r="H833" s="8" t="inlineStr"/>
     </row>
     <row r="834">
@@ -18954,7 +18429,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C839" s="6" t="inlineStr">
@@ -18962,12 +18437,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E839" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F839" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E839" s="7" t="inlineStr"/>
+      <c r="F839" s="7" t="inlineStr"/>
       <c r="H839" s="8" t="inlineStr"/>
     </row>
     <row r="840">
@@ -18978,7 +18449,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C840" s="6" t="inlineStr">
@@ -18986,12 +18457,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E840" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F840" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E840" s="7" t="inlineStr"/>
+      <c r="F840" s="7" t="inlineStr"/>
       <c r="H840" s="8" t="inlineStr"/>
     </row>
     <row r="841">
@@ -19036,7 +18503,7 @@
       </c>
       <c r="C842" s="6" t="inlineStr">
         <is>
-          <t>Rack Dolly</t>
+          <t>RACK DOLLY</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -19060,7 +18527,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C843" s="6" t="inlineStr">
@@ -19068,12 +18535,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E843" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F843" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E843" s="7" t="inlineStr"/>
+      <c r="F843" s="7" t="inlineStr"/>
       <c r="H843" s="8" t="inlineStr"/>
     </row>
     <row r="844">
@@ -19113,7 +18576,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C845" s="6" t="inlineStr">
@@ -19121,12 +18584,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E845" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F845" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E845" s="7" t="inlineStr"/>
+      <c r="F845" s="7" t="inlineStr"/>
       <c r="H845" s="8" t="inlineStr"/>
     </row>
     <row r="846">
@@ -19142,7 +18601,7 @@
       </c>
       <c r="C846" s="6" t="inlineStr">
         <is>
-          <t>Tray Drying / Storage Rack</t>
+          <t>TRAY DRYING / STORAGE RACK</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -19201,7 +18660,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C849" s="6" t="inlineStr">
@@ -19209,12 +18668,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E849" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F849" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E849" s="7" t="inlineStr"/>
+      <c r="F849" s="7" t="inlineStr"/>
       <c r="H849" s="8" t="inlineStr"/>
     </row>
     <row r="850">
@@ -19283,7 +18738,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C852" s="6" t="inlineStr">
@@ -19291,12 +18746,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E852" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F852" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E852" s="7" t="inlineStr"/>
+      <c r="F852" s="7" t="inlineStr"/>
       <c r="H852" s="8" t="inlineStr"/>
     </row>
     <row r="853">
@@ -19307,7 +18758,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C853" s="6" t="inlineStr">
@@ -19315,12 +18766,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E853" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F853" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E853" s="7" t="inlineStr"/>
+      <c r="F853" s="7" t="inlineStr"/>
       <c r="H853" s="8" t="inlineStr"/>
     </row>
     <row r="854">
@@ -19331,7 +18778,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C854" s="6" t="inlineStr">
@@ -19339,12 +18786,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E854" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F854" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E854" s="7" t="inlineStr"/>
+      <c r="F854" s="7" t="inlineStr"/>
       <c r="H854" s="8" t="inlineStr"/>
     </row>
     <row r="855">
@@ -19355,7 +18798,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C855" s="6" t="inlineStr">
@@ -19363,12 +18806,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E855" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F855" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E855" s="7" t="inlineStr"/>
+      <c r="F855" s="7" t="inlineStr"/>
       <c r="H855" s="8" t="inlineStr"/>
     </row>
     <row r="857">
@@ -19498,7 +18937,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C863" s="6" t="inlineStr">
@@ -19506,12 +18945,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E863" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F863" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E863" s="7" t="inlineStr"/>
+      <c r="F863" s="7" t="inlineStr"/>
       <c r="H863" s="8" t="inlineStr"/>
     </row>
     <row r="864">
@@ -19640,7 +19075,7 @@
       </c>
       <c r="C869" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -19688,7 +19123,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C871" s="6" t="inlineStr">
@@ -19696,12 +19131,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E871" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F871" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E871" s="7" t="inlineStr"/>
+      <c r="F871" s="7" t="inlineStr"/>
       <c r="H871" s="8" t="inlineStr"/>
     </row>
     <row r="872">
@@ -19712,7 +19143,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C872" s="6" t="inlineStr">
@@ -19720,12 +19151,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E872" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F872" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E872" s="7" t="inlineStr"/>
+      <c r="F872" s="7" t="inlineStr"/>
       <c r="H872" s="8" t="inlineStr"/>
     </row>
     <row r="873">
@@ -19741,7 +19168,7 @@
       </c>
       <c r="C873" s="6" t="inlineStr">
         <is>
-          <t>Hose Reel</t>
+          <t>HOSE REEL</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -19987,7 +19414,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C886" s="6" t="inlineStr">
@@ -19995,12 +19422,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E886" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F886" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E886" s="7" t="inlineStr"/>
+      <c r="F886" s="7" t="inlineStr"/>
       <c r="H886" s="8" t="inlineStr"/>
     </row>
     <row r="887">
@@ -20088,7 +19511,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C890" s="6" t="inlineStr">
@@ -20096,12 +19519,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E890" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F890" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E890" s="7" t="inlineStr"/>
+      <c r="F890" s="7" t="inlineStr"/>
       <c r="H890" s="8" t="inlineStr"/>
     </row>
     <row r="891">
@@ -20112,7 +19531,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C891" s="6" t="inlineStr">
@@ -20120,12 +19539,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E891" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F891" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E891" s="7" t="inlineStr"/>
+      <c r="F891" s="7" t="inlineStr"/>
       <c r="H891" s="8" t="inlineStr"/>
     </row>
     <row r="892">
@@ -20303,7 +19718,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C899" s="6" t="inlineStr">
@@ -20311,12 +19726,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E899" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F899" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E899" s="7" t="inlineStr"/>
+      <c r="F899" s="7" t="inlineStr"/>
       <c r="H899" s="8" t="inlineStr"/>
     </row>
     <row r="900">
@@ -20327,7 +19738,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C900" s="6" t="inlineStr">
@@ -20335,12 +19746,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E900" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F900" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E900" s="7" t="inlineStr"/>
+      <c r="F900" s="7" t="inlineStr"/>
       <c r="H900" s="8" t="inlineStr"/>
     </row>
     <row r="901">
@@ -20380,7 +19787,7 @@
       </c>
       <c r="C902" s="6" t="inlineStr">
         <is>
-          <t>Air Curtain</t>
+          <t>AIR CURTAIN</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -20487,7 +19894,7 @@
       </c>
       <c r="C906" s="6" t="inlineStr">
         <is>
-          <t>Air Curtain</t>
+          <t>AIR CURTAIN</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -20511,7 +19918,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C907" s="6" t="inlineStr">
@@ -20519,12 +19926,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E907" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F907" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E907" s="7" t="inlineStr"/>
+      <c r="F907" s="7" t="inlineStr"/>
       <c r="H907" s="8" t="inlineStr"/>
     </row>
     <row r="908">
@@ -20535,7 +19938,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C908" s="6" t="inlineStr">
@@ -20543,12 +19946,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E908" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F908" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E908" s="7" t="inlineStr"/>
+      <c r="F908" s="7" t="inlineStr"/>
       <c r="H908" s="8" t="inlineStr"/>
     </row>
     <row r="910">
@@ -20678,7 +20077,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C916" s="6" t="inlineStr">
@@ -20686,12 +20085,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E916" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F916" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E916" s="7" t="inlineStr"/>
+      <c r="F916" s="7" t="inlineStr"/>
       <c r="H916" s="8" t="inlineStr"/>
     </row>
     <row r="917">
@@ -20784,7 +20179,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C920" s="6" t="inlineStr">
@@ -20792,12 +20187,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E920" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F920" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E920" s="7" t="inlineStr"/>
+      <c r="F920" s="7" t="inlineStr"/>
       <c r="H920" s="8" t="inlineStr"/>
     </row>
     <row r="921">
@@ -20808,7 +20199,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C921" s="6" t="inlineStr">
@@ -20816,12 +20207,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E921" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F921" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E921" s="7" t="inlineStr"/>
+      <c r="F921" s="7" t="inlineStr"/>
       <c r="H921" s="8" t="inlineStr"/>
     </row>
     <row r="922">
@@ -21075,7 +20462,7 @@
       </c>
       <c r="C931" s="6" t="inlineStr">
         <is>
-          <t>Trash Cooler</t>
+          <t>TRASH COOLER</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -21099,7 +20486,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C932" s="6" t="inlineStr">
@@ -21107,12 +20494,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E932" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F932" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E932" s="7" t="inlineStr"/>
+      <c r="F932" s="7" t="inlineStr"/>
       <c r="H932" s="8" t="inlineStr"/>
     </row>
     <row r="933">
@@ -21123,7 +20506,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C933" s="6" t="inlineStr">
@@ -21131,12 +20514,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E933" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F933" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E933" s="7" t="inlineStr"/>
+      <c r="F933" s="7" t="inlineStr"/>
       <c r="H933" s="8" t="inlineStr"/>
     </row>
     <row r="934">
@@ -21152,7 +20531,7 @@
       </c>
       <c r="C934" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -21254,7 +20633,7 @@
       </c>
       <c r="C938" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -21307,7 +20686,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C940" s="6" t="inlineStr">
@@ -21315,12 +20694,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E940" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F940" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E940" s="7" t="inlineStr"/>
+      <c r="F940" s="7" t="inlineStr"/>
       <c r="H940" s="8" t="inlineStr"/>
     </row>
     <row r="941">
@@ -21336,7 +20711,7 @@
       </c>
       <c r="C941" s="6" t="inlineStr">
         <is>
-          <t>Mop Sink</t>
+          <t>MOP SINK</t>
         </is>
       </c>
       <c r="E941" s="7" t="n">
@@ -21360,7 +20735,7 @@
       </c>
       <c r="C942" s="6" t="inlineStr">
         <is>
-          <t>Hose Bibb</t>
+          <t>HOSE BIBB</t>
         </is>
       </c>
       <c r="E942" s="7" t="n">
@@ -21384,7 +20759,7 @@
       </c>
       <c r="C943" s="6" t="inlineStr">
         <is>
-          <t>Mop Rack</t>
+          <t>MOP RACK</t>
         </is>
       </c>
       <c r="E943" s="7" t="n">
@@ -21403,7 +20778,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C944" s="6" t="inlineStr">
@@ -21411,12 +20786,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E944" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F944" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E944" s="7" t="inlineStr"/>
+      <c r="F944" s="7" t="inlineStr"/>
       <c r="H944" s="8" t="inlineStr"/>
     </row>
     <row r="945">
@@ -21427,7 +20798,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C945" s="6" t="inlineStr">
@@ -21435,12 +20806,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E945" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F945" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E945" s="7" t="inlineStr"/>
+      <c r="F945" s="7" t="inlineStr"/>
       <c r="H945" s="8" t="inlineStr"/>
     </row>
     <row r="946">
@@ -21456,7 +20823,7 @@
       </c>
       <c r="C946" s="6" t="inlineStr">
         <is>
-          <t>Wall Shelf</t>
+          <t>WALL SHELF</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
@@ -21533,7 +20900,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C949" s="6" t="inlineStr">
@@ -21541,12 +20908,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E949" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F949" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E949" s="7" t="inlineStr"/>
+      <c r="F949" s="7" t="inlineStr"/>
       <c r="H949" s="8" t="inlineStr"/>
     </row>
     <row r="950">
@@ -21557,7 +20920,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C950" s="6" t="inlineStr">
@@ -21565,12 +20928,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E950" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F950" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E950" s="7" t="inlineStr"/>
+      <c r="F950" s="7" t="inlineStr"/>
       <c r="H950" s="8" t="inlineStr"/>
     </row>
     <row r="952">
@@ -21726,7 +21085,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C959" s="6" t="inlineStr">
@@ -21734,12 +21093,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E959" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F959" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E959" s="7" t="inlineStr"/>
+      <c r="F959" s="7" t="inlineStr"/>
       <c r="H959" s="8" t="inlineStr"/>
     </row>
     <row r="960">
@@ -21892,7 +21247,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C966" s="6" t="inlineStr">
@@ -21900,12 +21255,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E966" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F966" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E966" s="7" t="inlineStr"/>
+      <c r="F966" s="7" t="inlineStr"/>
       <c r="H966" s="8" t="inlineStr"/>
     </row>
     <row r="967">
@@ -21916,7 +21267,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C967" s="6" t="inlineStr">
@@ -21924,12 +21275,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E967" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F967" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E967" s="7" t="inlineStr"/>
+      <c r="F967" s="7" t="inlineStr"/>
       <c r="H967" s="8" t="inlineStr"/>
     </row>
     <row r="968">
@@ -21989,7 +21336,7 @@
       </c>
       <c r="C970" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D970" t="inlineStr">
@@ -22090,7 +21437,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C974" s="6" t="inlineStr">
@@ -22098,12 +21445,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E974" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F974" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E974" s="7" t="inlineStr"/>
+      <c r="F974" s="7" t="inlineStr"/>
       <c r="H974" s="8" t="inlineStr"/>
     </row>
     <row r="975">
@@ -22321,7 +21664,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C986" s="6" t="inlineStr">
@@ -22329,12 +21672,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E986" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F986" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E986" s="7" t="inlineStr"/>
+      <c r="F986" s="7" t="inlineStr"/>
       <c r="H986" s="8" t="inlineStr"/>
     </row>
     <row r="987">
@@ -22345,7 +21684,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C987" s="6" t="inlineStr">
@@ -22353,12 +21692,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E987" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F987" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E987" s="7" t="inlineStr"/>
+      <c r="F987" s="7" t="inlineStr"/>
       <c r="H987" s="8" t="inlineStr"/>
     </row>
     <row r="988">
@@ -22447,7 +21782,7 @@
       </c>
       <c r="C991" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
@@ -22529,7 +21864,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C994" s="6" t="inlineStr">
@@ -22537,12 +21872,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E994" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F994" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E994" s="7" t="inlineStr"/>
+      <c r="F994" s="7" t="inlineStr"/>
       <c r="H994" s="8" t="inlineStr"/>
     </row>
     <row r="995">
@@ -22691,7 +22022,7 @@
       </c>
       <c r="C1002" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr">
@@ -22893,7 +22224,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1013" s="6" t="inlineStr">
@@ -22901,12 +22232,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1013" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1013" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1013" s="7" t="inlineStr"/>
+      <c r="F1013" s="7" t="inlineStr"/>
       <c r="H1013" s="8" t="inlineStr"/>
     </row>
     <row r="1014">
@@ -22917,7 +22244,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1014" s="6" t="inlineStr">
@@ -22925,12 +22252,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1014" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1014" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1014" s="7" t="inlineStr"/>
+      <c r="F1014" s="7" t="inlineStr"/>
       <c r="H1014" s="8" t="inlineStr"/>
     </row>
     <row r="1015">
@@ -23005,7 +22328,7 @@
       </c>
       <c r="C1018" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
@@ -23102,7 +22425,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1022" s="6" t="inlineStr">
@@ -23110,12 +22433,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1022" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1022" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1022" s="7" t="inlineStr"/>
+      <c r="F1022" s="7" t="inlineStr"/>
       <c r="H1022" s="8" t="inlineStr"/>
     </row>
     <row r="1023">
@@ -23160,7 +22479,7 @@
       </c>
       <c r="C1024" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D1024" t="inlineStr">
@@ -23213,7 +22532,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1026" s="6" t="inlineStr">
@@ -23221,12 +22540,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1026" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1026" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1026" s="7" t="inlineStr"/>
+      <c r="F1026" s="7" t="inlineStr"/>
       <c r="H1026" s="8" t="inlineStr"/>
     </row>
     <row r="1027">
@@ -23237,7 +22552,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1027" s="6" t="inlineStr">
@@ -23245,12 +22560,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1027" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1027" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1027" s="7" t="inlineStr"/>
+      <c r="F1027" s="7" t="inlineStr"/>
       <c r="H1027" s="8" t="inlineStr"/>
     </row>
     <row r="1028">
@@ -23397,7 +22708,7 @@
       </c>
       <c r="C1033" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
@@ -23421,7 +22732,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1034" s="6" t="inlineStr">
@@ -23429,12 +22740,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1034" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1034" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1034" s="7" t="inlineStr"/>
+      <c r="F1034" s="7" t="inlineStr"/>
       <c r="H1034" s="8" t="inlineStr"/>
     </row>
     <row r="1035">
@@ -23445,7 +22752,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1035" s="6" t="inlineStr">
@@ -23453,12 +22760,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1035" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1035" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1035" s="7" t="inlineStr"/>
+      <c r="F1035" s="7" t="inlineStr"/>
       <c r="H1035" s="8" t="inlineStr"/>
     </row>
     <row r="1036">
@@ -23482,11 +22785,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1036" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1036" s="7" t="n">
-        <v>0</v>
+      <c r="E1036" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1036" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1036" s="8" t="inlineStr"/>
     </row>
@@ -23511,11 +22818,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1037" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1037" s="7" t="n">
-        <v>0</v>
+      <c r="E1037" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1037" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1037" s="8" t="inlineStr"/>
     </row>
@@ -23527,7 +22838,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1038" s="6" t="inlineStr">
@@ -23535,12 +22846,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1038" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1038" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1038" s="7" t="inlineStr"/>
+      <c r="F1038" s="7" t="inlineStr"/>
       <c r="H1038" s="8" t="inlineStr"/>
     </row>
     <row r="1039">
@@ -23551,7 +22858,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1039" s="6" t="inlineStr">
@@ -23559,12 +22866,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1039" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1039" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1039" s="7" t="inlineStr"/>
+      <c r="F1039" s="7" t="inlineStr"/>
       <c r="H1039" s="8" t="inlineStr"/>
     </row>
     <row r="1040">
@@ -23575,7 +22878,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1040" s="6" t="inlineStr">
@@ -23583,12 +22886,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1040" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1040" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1040" s="7" t="inlineStr"/>
+      <c r="F1040" s="7" t="inlineStr"/>
       <c r="H1040" s="8" t="inlineStr"/>
     </row>
     <row r="1042">
@@ -23858,7 +23157,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1057" s="6" t="inlineStr">
@@ -23866,12 +23165,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1057" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1057" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1057" s="7" t="inlineStr"/>
+      <c r="F1057" s="7" t="inlineStr"/>
       <c r="H1057" s="8" t="inlineStr"/>
     </row>
     <row r="1058">
@@ -24152,7 +23447,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1071" s="6" t="inlineStr">
@@ -24160,12 +23455,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1071" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1071" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1071" s="7" t="inlineStr"/>
+      <c r="F1071" s="7" t="inlineStr"/>
       <c r="H1071" s="8" t="inlineStr"/>
     </row>
     <row r="1072">
@@ -24536,7 +23827,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1091" s="6" t="inlineStr">
@@ -24544,12 +23835,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1091" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1091" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1091" s="7" t="inlineStr"/>
+      <c r="F1091" s="7" t="inlineStr"/>
       <c r="H1091" s="8" t="inlineStr"/>
     </row>
     <row r="1092">
@@ -24818,7 +24105,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1107" s="6" t="inlineStr">
@@ -24826,12 +24113,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1107" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1107" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1107" s="7" t="inlineStr"/>
+      <c r="F1107" s="7" t="inlineStr"/>
       <c r="H1107" s="8" t="inlineStr"/>
     </row>
     <row r="1108">
@@ -24996,7 +24279,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1117" s="6" t="inlineStr">
@@ -25004,12 +24287,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1117" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1117" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1117" s="7" t="inlineStr"/>
+      <c r="F1117" s="7" t="inlineStr"/>
       <c r="H1117" s="8" t="inlineStr"/>
     </row>
     <row r="1118">
@@ -25020,7 +24299,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1118" s="6" t="inlineStr">
@@ -25028,12 +24307,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1118" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1118" s="7" t="inlineStr"/>
+      <c r="F1118" s="7" t="inlineStr"/>
       <c r="H1118" s="8" t="inlineStr"/>
     </row>
     <row r="1119">
@@ -25044,7 +24319,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1119" s="6" t="inlineStr">
@@ -25052,12 +24327,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1119" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1119" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1119" s="7" t="inlineStr"/>
+      <c r="F1119" s="7" t="inlineStr"/>
       <c r="H1119" s="8" t="inlineStr"/>
     </row>
     <row r="1120">
@@ -25207,7 +24478,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1128" s="6" t="inlineStr">
@@ -25215,12 +24486,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1128" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1128" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1128" s="7" t="inlineStr"/>
+      <c r="F1128" s="7" t="inlineStr"/>
       <c r="H1128" s="8" t="inlineStr"/>
     </row>
     <row r="1129">
@@ -25518,7 +24785,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1145" s="6" t="inlineStr">
@@ -25526,12 +24793,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1145" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1145" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1145" s="7" t="inlineStr"/>
+      <c r="F1145" s="7" t="inlineStr"/>
       <c r="H1145" s="8" t="inlineStr"/>
     </row>
     <row r="1146">
@@ -25859,7 +25122,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1164" s="6" t="inlineStr">
@@ -25867,12 +25130,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1164" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1164" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1164" s="7" t="inlineStr"/>
+      <c r="F1164" s="7" t="inlineStr"/>
       <c r="H1164" s="8" t="inlineStr"/>
     </row>
     <row r="1165">
@@ -25883,7 +25142,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1165" s="6" t="inlineStr">
@@ -25891,12 +25150,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1165" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1165" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1165" s="7" t="inlineStr"/>
+      <c r="F1165" s="7" t="inlineStr"/>
       <c r="H1165" s="8" t="inlineStr"/>
     </row>
     <row r="1166">
@@ -26318,7 +25573,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1189" s="6" t="inlineStr">
@@ -26326,12 +25581,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1189" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1189" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1189" s="7" t="inlineStr"/>
+      <c r="F1189" s="7" t="inlineStr"/>
       <c r="H1189" s="8" t="inlineStr"/>
     </row>
     <row r="1190">
@@ -26766,7 +26017,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1212" s="6" t="inlineStr">
@@ -26774,12 +26025,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1212" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1212" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1212" s="7" t="inlineStr"/>
+      <c r="F1212" s="7" t="inlineStr"/>
       <c r="H1212" s="8" t="inlineStr"/>
     </row>
     <row r="1213">
@@ -26790,7 +26037,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1213" s="6" t="inlineStr">
@@ -26798,12 +26045,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1213" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1213" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1213" s="7" t="inlineStr"/>
+      <c r="F1213" s="7" t="inlineStr"/>
       <c r="H1213" s="8" t="inlineStr"/>
     </row>
     <row r="1214">
@@ -26970,7 +26213,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1220" s="6" t="inlineStr">
@@ -26978,12 +26221,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1220" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1220" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1220" s="7" t="inlineStr"/>
+      <c r="F1220" s="7" t="inlineStr"/>
       <c r="H1220" s="8" t="inlineStr"/>
     </row>
     <row r="1221">
@@ -27052,7 +26291,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1223" s="6" t="inlineStr">
@@ -27060,12 +26299,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1223" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1223" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1223" s="7" t="inlineStr"/>
+      <c r="F1223" s="7" t="inlineStr"/>
       <c r="H1223" s="8" t="inlineStr"/>
     </row>
     <row r="1224">
@@ -27118,11 +26353,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1225" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1225" s="7" t="n">
-        <v>0</v>
+      <c r="E1225" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1225" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1225" s="8" t="inlineStr"/>
     </row>
@@ -27147,11 +26386,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1226" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1226" s="7" t="n">
-        <v>0</v>
+      <c r="E1226" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1226" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1226" s="8" t="inlineStr"/>
     </row>
@@ -27163,7 +26406,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1227" s="6" t="inlineStr">
@@ -27171,12 +26414,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1227" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1227" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1227" s="7" t="inlineStr"/>
+      <c r="F1227" s="7" t="inlineStr"/>
       <c r="H1227" s="8" t="inlineStr"/>
     </row>
     <row r="1228">
@@ -27187,7 +26426,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1228" s="6" t="inlineStr">
@@ -27195,12 +26434,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1228" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1228" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1228" s="7" t="inlineStr"/>
+      <c r="F1228" s="7" t="inlineStr"/>
       <c r="H1228" s="8" t="inlineStr"/>
     </row>
     <row r="1229">
@@ -27224,11 +26459,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1229" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1229" s="7" t="n">
-        <v>0</v>
+      <c r="E1229" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1229" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1229" s="8" t="inlineStr"/>
     </row>
@@ -27390,7 +26629,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1236" s="6" t="inlineStr">
@@ -27398,12 +26637,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1236" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1236" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1236" s="7" t="inlineStr"/>
+      <c r="F1236" s="7" t="inlineStr"/>
       <c r="H1236" s="8" t="inlineStr"/>
     </row>
     <row r="1237">
@@ -27630,7 +26865,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1248" s="6" t="inlineStr">
@@ -27638,12 +26873,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1248" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1248" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1248" s="7" t="inlineStr"/>
+      <c r="F1248" s="7" t="inlineStr"/>
       <c r="H1248" s="8" t="inlineStr"/>
     </row>
     <row r="1249">
@@ -27654,7 +26885,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1249" s="6" t="inlineStr">
@@ -27662,12 +26893,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1249" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1249" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1249" s="7" t="inlineStr"/>
+      <c r="F1249" s="7" t="inlineStr"/>
       <c r="H1249" s="8" t="inlineStr"/>
     </row>
     <row r="1250">
@@ -27683,7 +26910,7 @@
       </c>
       <c r="C1250" s="6" t="inlineStr">
         <is>
-          <t>Cup Dispenser</t>
+          <t>CUP DISPENSER</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr">
@@ -27882,7 +27109,7 @@
       </c>
       <c r="C1258" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr">
@@ -27986,7 +27213,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1264" s="6" t="inlineStr">
@@ -27994,12 +27221,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1264" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1264" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1264" s="7" t="inlineStr"/>
+      <c r="F1264" s="7" t="inlineStr"/>
       <c r="H1264" s="8" t="inlineStr"/>
     </row>
     <row r="1265">
@@ -28217,7 +27440,7 @@
       </c>
       <c r="C1275" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr">
@@ -28420,7 +27643,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1287" s="6" t="inlineStr">
@@ -28428,12 +27651,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1287" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1287" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1287" s="7" t="inlineStr"/>
+      <c r="F1287" s="7" t="inlineStr"/>
       <c r="H1287" s="8" t="inlineStr"/>
     </row>
     <row r="1288">
@@ -28444,7 +27663,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1288" s="6" t="inlineStr">
@@ -28452,12 +27671,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1288" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1288" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1288" s="7" t="inlineStr"/>
+      <c r="F1288" s="7" t="inlineStr"/>
       <c r="H1288" s="8" t="inlineStr"/>
     </row>
     <row r="1289">
@@ -28676,7 +27891,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1301" s="6" t="inlineStr">
@@ -28684,12 +27899,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1301" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1301" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1301" s="7" t="inlineStr"/>
+      <c r="F1301" s="7" t="inlineStr"/>
       <c r="H1301" s="8" t="inlineStr"/>
     </row>
     <row r="1302">
@@ -28744,7 +27955,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1304" s="6" t="inlineStr">
@@ -28752,12 +27963,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1304" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1304" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1304" s="7" t="inlineStr"/>
+      <c r="F1304" s="7" t="inlineStr"/>
       <c r="H1304" s="8" t="inlineStr"/>
     </row>
     <row r="1305">
@@ -29035,7 +28242,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1320" s="6" t="inlineStr">
@@ -29043,12 +28250,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1320" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1320" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1320" s="7" t="inlineStr"/>
+      <c r="F1320" s="7" t="inlineStr"/>
       <c r="H1320" s="8" t="inlineStr"/>
     </row>
     <row r="1321">
@@ -29059,7 +28262,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1321" s="6" t="inlineStr">
@@ -29067,12 +28270,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1321" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1321" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1321" s="7" t="inlineStr"/>
+      <c r="F1321" s="7" t="inlineStr"/>
       <c r="H1321" s="8" t="inlineStr"/>
     </row>
     <row r="1322">
@@ -29194,7 +28393,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1326" s="6" t="inlineStr">
@@ -29202,12 +28401,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1326" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1326" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1326" s="7" t="inlineStr"/>
+      <c r="F1326" s="7" t="inlineStr"/>
       <c r="H1326" s="8" t="inlineStr"/>
     </row>
     <row r="1327">
@@ -29305,7 +28500,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1330" s="6" t="inlineStr">
@@ -29313,12 +28508,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1330" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1330" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1330" s="7" t="inlineStr"/>
+      <c r="F1330" s="7" t="inlineStr"/>
       <c r="H1330" s="8" t="inlineStr"/>
     </row>
     <row r="1331">
@@ -29358,7 +28549,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1332" s="6" t="inlineStr">
@@ -29366,12 +28557,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1332" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1332" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1332" s="7" t="inlineStr"/>
+      <c r="F1332" s="7" t="inlineStr"/>
       <c r="H1332" s="8" t="inlineStr"/>
     </row>
     <row r="1333">
@@ -29424,11 +28611,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1334" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1334" s="7" t="n">
-        <v>0</v>
+      <c r="E1334" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1334" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1334" s="8" t="inlineStr"/>
     </row>
@@ -29573,7 +28764,7 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1342" s="6" t="inlineStr">
@@ -29581,12 +28772,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1342" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1342" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1342" s="7" t="inlineStr"/>
+      <c r="F1342" s="7" t="inlineStr"/>
       <c r="H1342" s="8" t="inlineStr"/>
     </row>
     <row r="1343">
@@ -29831,7 +29018,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1353" s="6" t="inlineStr">
@@ -29839,12 +29026,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1353" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1353" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1353" s="7" t="inlineStr"/>
+      <c r="F1353" s="7" t="inlineStr"/>
       <c r="H1353" s="8" t="inlineStr"/>
     </row>
     <row r="1354">
@@ -29868,11 +29051,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1354" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1354" s="7" t="n">
-        <v>0</v>
+      <c r="E1354" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1354" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1354" s="8" t="inlineStr"/>
     </row>
@@ -30017,7 +29204,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1362" s="6" t="inlineStr">
@@ -30025,12 +29212,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1362" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1362" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1362" s="7" t="inlineStr"/>
+      <c r="F1362" s="7" t="inlineStr"/>
       <c r="H1362" s="8" t="inlineStr"/>
     </row>
     <row r="1363">
@@ -30041,7 +29224,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1363" s="6" t="inlineStr">
@@ -30049,12 +29232,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1363" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1363" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1363" s="7" t="inlineStr"/>
+      <c r="F1363" s="7" t="inlineStr"/>
       <c r="H1363" s="8" t="inlineStr"/>
     </row>
     <row r="1364">
@@ -30155,7 +29334,7 @@
       </c>
       <c r="C1370" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
@@ -30194,7 +29373,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1372" s="6" t="inlineStr">
@@ -30202,12 +29381,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1372" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1372" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1372" s="7" t="inlineStr"/>
+      <c r="F1372" s="7" t="inlineStr"/>
       <c r="H1372" s="8" t="inlineStr"/>
     </row>
     <row r="1373">
@@ -30300,7 +29475,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1376" s="6" t="inlineStr">
@@ -30308,12 +29483,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1376" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1376" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1376" s="7" t="inlineStr"/>
+      <c r="F1376" s="7" t="inlineStr"/>
       <c r="H1376" s="8" t="inlineStr"/>
     </row>
     <row r="1377">
@@ -30324,7 +29495,7 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1377" s="6" t="inlineStr">
@@ -30332,12 +29503,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1377" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1377" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1377" s="7" t="inlineStr"/>
+      <c r="F1377" s="7" t="inlineStr"/>
       <c r="H1377" s="8" t="inlineStr"/>
     </row>
     <row r="1378">
@@ -30465,7 +29632,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1383" s="6" t="inlineStr">
@@ -30473,12 +29640,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1383" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1383" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1383" s="7" t="inlineStr"/>
+      <c r="F1383" s="7" t="inlineStr"/>
       <c r="H1383" s="8" t="inlineStr"/>
     </row>
     <row r="1384">
@@ -31089,7 +30252,7 @@
       </c>
       <c r="C1419" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
@@ -31304,7 +30467,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1429" s="6" t="inlineStr">
@@ -31312,12 +30475,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1429" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1429" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1429" s="7" t="inlineStr"/>
+      <c r="F1429" s="7" t="inlineStr"/>
       <c r="H1429" s="8" t="inlineStr"/>
     </row>
     <row r="1430">
@@ -31333,7 +30492,7 @@
       </c>
       <c r="C1430" s="6" t="inlineStr">
         <is>
-          <t>Reach-In Freezer</t>
+          <t>REACH-IN FREEZER</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr">
@@ -32137,7 +31296,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1478" s="6" t="inlineStr">
@@ -32145,12 +31304,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1478" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1478" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1478" s="7" t="inlineStr"/>
+      <c r="F1478" s="7" t="inlineStr"/>
       <c r="H1478" s="8" t="inlineStr"/>
     </row>
     <row r="1479">
@@ -32161,7 +31316,7 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1479" s="6" t="inlineStr">
@@ -32169,12 +31324,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1479" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1479" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1479" s="7" t="inlineStr"/>
+      <c r="F1479" s="7" t="inlineStr"/>
       <c r="H1479" s="8" t="inlineStr"/>
     </row>
     <row r="1480">
@@ -32517,7 +31668,7 @@
       </c>
       <c r="C1499" s="6" t="inlineStr">
         <is>
-          <t>Open Display Merchandiser</t>
+          <t>OPEN DISPLAY MERCHANDISER</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
@@ -33171,7 +32322,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1537" s="6" t="inlineStr">
@@ -33179,12 +32330,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1537" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1537" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1537" s="7" t="inlineStr"/>
+      <c r="F1537" s="7" t="inlineStr"/>
       <c r="H1537" s="8" t="inlineStr"/>
     </row>
     <row r="1538">
@@ -33237,11 +32384,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1539" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1539" s="7" t="n">
-        <v>0</v>
+      <c r="E1539" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1539" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1539" s="8" t="inlineStr"/>
     </row>
@@ -33295,11 +32446,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1541" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1541" s="7" t="n">
-        <v>0</v>
+      <c r="E1541" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1541" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1541" s="8" t="inlineStr"/>
     </row>
@@ -33507,11 +32662,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1552" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1552" s="7" t="n">
-        <v>0</v>
+      <c r="E1552" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1552" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1552" s="8" t="inlineStr"/>
     </row>
@@ -33523,7 +32682,7 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1553" s="6" t="inlineStr">
@@ -33531,12 +32690,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1553" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1553" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1553" s="7" t="inlineStr"/>
+      <c r="F1553" s="7" t="inlineStr"/>
       <c r="H1553" s="8" t="inlineStr"/>
     </row>
     <row r="1554">
@@ -33547,7 +32702,7 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1554" s="6" t="inlineStr">
@@ -33555,12 +32710,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1554" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1554" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1554" s="7" t="inlineStr"/>
+      <c r="F1554" s="7" t="inlineStr"/>
       <c r="H1554" s="8" t="inlineStr"/>
     </row>
     <row r="1555">
@@ -33739,7 +32890,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1564" s="6" t="inlineStr">
@@ -33747,12 +32898,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1564" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1564" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1564" s="7" t="inlineStr"/>
+      <c r="F1564" s="7" t="inlineStr"/>
       <c r="H1564" s="8" t="inlineStr"/>
     </row>
     <row r="1565">
@@ -33837,7 +32984,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1569" s="6" t="inlineStr">
@@ -33845,12 +32992,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1569" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1569" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1569" s="7" t="inlineStr"/>
+      <c r="F1569" s="7" t="inlineStr"/>
       <c r="H1569" s="8" t="inlineStr"/>
     </row>
     <row r="1570">
@@ -33920,7 +33063,7 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1573" s="6" t="inlineStr">
@@ -33928,12 +33071,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1573" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1573" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1573" s="7" t="inlineStr"/>
+      <c r="F1573" s="7" t="inlineStr"/>
       <c r="H1573" s="8" t="inlineStr"/>
     </row>
     <row r="1574">
@@ -33973,7 +33112,7 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1575" s="6" t="inlineStr">
@@ -33981,12 +33120,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1575" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1575" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1575" s="7" t="inlineStr"/>
+      <c r="F1575" s="7" t="inlineStr"/>
       <c r="H1575" s="8" t="inlineStr"/>
     </row>
     <row r="1576">
@@ -34010,11 +33145,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1576" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1576" s="7" t="n">
-        <v>0</v>
+      <c r="E1576" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1576" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1576" s="8" t="inlineStr"/>
     </row>
@@ -34039,11 +33178,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1577" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1577" s="7" t="n">
-        <v>0</v>
+      <c r="E1577" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1577" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1577" s="8" t="inlineStr"/>
     </row>
@@ -34060,7 +33203,7 @@
       </c>
       <c r="C1578" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr">
@@ -34099,7 +33242,7 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1580" s="6" t="inlineStr">
@@ -34107,12 +33250,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1580" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1580" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1580" s="7" t="inlineStr"/>
+      <c r="F1580" s="7" t="inlineStr"/>
       <c r="H1580" s="8" t="inlineStr"/>
     </row>
     <row r="1581">
@@ -34123,7 +33262,7 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1581" s="6" t="inlineStr">
@@ -34131,12 +33270,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1581" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1581" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1581" s="7" t="inlineStr"/>
+      <c r="F1581" s="7" t="inlineStr"/>
       <c r="H1581" s="8" t="inlineStr"/>
     </row>
     <row r="1583">
@@ -34160,7 +33295,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1585" s="6" t="inlineStr">
@@ -34168,12 +33303,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1585" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1585" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1585" s="7" t="inlineStr"/>
+      <c r="F1585" s="7" t="inlineStr"/>
       <c r="H1585" s="8" t="inlineStr"/>
     </row>
     <row r="1586">
@@ -34316,7 +33447,7 @@
       </c>
       <c r="C1591" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr">
@@ -34405,7 +33536,7 @@
       </c>
       <c r="C1596" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr">
@@ -34434,7 +33565,7 @@
       </c>
       <c r="C1597" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr">
@@ -34560,7 +33691,7 @@
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1602" s="6" t="inlineStr">
@@ -34568,12 +33699,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1602" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1602" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1602" s="7" t="inlineStr"/>
+      <c r="F1602" s="7" t="inlineStr"/>
       <c r="H1602" s="8" t="inlineStr"/>
     </row>
     <row r="1603">
@@ -34584,7 +33711,7 @@
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1603" s="6" t="inlineStr">
@@ -34592,12 +33719,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1603" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1603" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1603" s="7" t="inlineStr"/>
+      <c r="F1603" s="7" t="inlineStr"/>
       <c r="H1603" s="8" t="inlineStr"/>
     </row>
     <row r="1604">
@@ -34671,7 +33794,7 @@
       </c>
       <c r="C1606" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr">
@@ -34798,7 +33921,7 @@
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1612" s="6" t="inlineStr">
@@ -34806,12 +33929,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1612" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1612" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1612" s="7" t="inlineStr"/>
+      <c r="F1612" s="7" t="inlineStr"/>
       <c r="H1612" s="8" t="inlineStr"/>
     </row>
     <row r="1613">
@@ -34875,7 +33994,7 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1615" s="6" t="inlineStr">
@@ -34883,12 +34002,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1615" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1615" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1615" s="7" t="inlineStr"/>
+      <c r="F1615" s="7" t="inlineStr"/>
       <c r="H1615" s="8" t="inlineStr"/>
     </row>
     <row r="1616">
@@ -34899,7 +34014,7 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1616" s="6" t="inlineStr">
@@ -34907,12 +34022,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1616" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1616" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1616" s="7" t="inlineStr"/>
+      <c r="F1616" s="7" t="inlineStr"/>
       <c r="H1616" s="8" t="inlineStr"/>
     </row>
     <row r="1617">
@@ -34923,7 +34034,7 @@
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1617" s="6" t="inlineStr">
@@ -34931,12 +34042,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1617" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1617" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1617" s="7" t="inlineStr"/>
+      <c r="F1617" s="7" t="inlineStr"/>
       <c r="H1617" s="8" t="inlineStr"/>
     </row>
     <row r="1618">
@@ -34947,7 +34054,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1618" s="6" t="inlineStr">
@@ -34955,12 +34062,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1618" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1618" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1618" s="7" t="inlineStr"/>
+      <c r="F1618" s="7" t="inlineStr"/>
       <c r="H1618" s="8" t="inlineStr"/>
     </row>
     <row r="1620">
@@ -34984,7 +34087,7 @@
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1622" s="6" t="inlineStr">
@@ -34992,12 +34095,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1622" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1622" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1622" s="7" t="inlineStr"/>
+      <c r="F1622" s="7" t="inlineStr"/>
       <c r="H1622" s="8" t="inlineStr"/>
     </row>
     <row r="1623">
@@ -35140,7 +34239,7 @@
       </c>
       <c r="C1628" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr">
@@ -35229,7 +34328,7 @@
       </c>
       <c r="C1633" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr">
@@ -35258,7 +34357,7 @@
       </c>
       <c r="C1634" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr">
@@ -35384,7 +34483,7 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1639" s="6" t="inlineStr">
@@ -35392,12 +34491,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1639" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1639" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1639" s="7" t="inlineStr"/>
+      <c r="F1639" s="7" t="inlineStr"/>
       <c r="H1639" s="8" t="inlineStr"/>
     </row>
     <row r="1640">
@@ -35408,7 +34503,7 @@
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1640" s="6" t="inlineStr">
@@ -35416,12 +34511,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1640" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1640" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1640" s="7" t="inlineStr"/>
+      <c r="F1640" s="7" t="inlineStr"/>
       <c r="H1640" s="8" t="inlineStr"/>
     </row>
     <row r="1641">
@@ -35495,7 +34586,7 @@
       </c>
       <c r="C1643" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr">
@@ -35622,7 +34713,7 @@
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1649" s="6" t="inlineStr">
@@ -35630,12 +34721,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1649" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1649" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1649" s="7" t="inlineStr"/>
+      <c r="F1649" s="7" t="inlineStr"/>
       <c r="H1649" s="8" t="inlineStr"/>
     </row>
     <row r="1650">
@@ -35699,7 +34786,7 @@
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1652" s="6" t="inlineStr">
@@ -35707,12 +34794,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1652" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1652" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1652" s="7" t="inlineStr"/>
+      <c r="F1652" s="7" t="inlineStr"/>
       <c r="H1652" s="8" t="inlineStr"/>
     </row>
     <row r="1653">
@@ -35723,7 +34806,7 @@
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1653" s="6" t="inlineStr">
@@ -35731,12 +34814,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1653" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1653" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1653" s="7" t="inlineStr"/>
+      <c r="F1653" s="7" t="inlineStr"/>
       <c r="H1653" s="8" t="inlineStr"/>
     </row>
     <row r="1654">
@@ -35747,7 +34826,7 @@
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1654" s="6" t="inlineStr">
@@ -35755,12 +34834,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1654" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1654" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1654" s="7" t="inlineStr"/>
+      <c r="F1654" s="7" t="inlineStr"/>
       <c r="H1654" s="8" t="inlineStr"/>
     </row>
     <row r="1655">
@@ -35771,7 +34846,7 @@
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1655" s="6" t="inlineStr">
@@ -35779,12 +34854,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1655" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1655" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1655" s="7" t="inlineStr"/>
+      <c r="F1655" s="7" t="inlineStr"/>
       <c r="H1655" s="8" t="inlineStr"/>
     </row>
     <row r="1657">
@@ -35850,11 +34921,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1660" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1660" s="7" t="n">
-        <v>0</v>
+      <c r="E1660" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1660" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1660" s="8" t="inlineStr"/>
     </row>
@@ -35879,11 +34954,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1661" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1661" s="7" t="n">
-        <v>0</v>
+      <c r="E1661" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1661" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1661" s="8" t="inlineStr"/>
     </row>
@@ -35900,7 +34979,7 @@
       </c>
       <c r="C1662" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr">
@@ -35924,7 +35003,7 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1663" s="6" t="inlineStr">
@@ -35932,12 +35011,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1663" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1663" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1663" s="7" t="inlineStr"/>
+      <c r="F1663" s="7" t="inlineStr"/>
       <c r="H1663" s="8" t="inlineStr"/>
     </row>
     <row r="1664">
@@ -36101,7 +35176,7 @@
       </c>
       <c r="C1672" s="6" t="inlineStr">
         <is>
-          <t>Water Filtration System</t>
+          <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr">
@@ -36140,7 +35215,7 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1674" s="6" t="inlineStr">
@@ -36148,12 +35223,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1674" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1674" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1674" s="7" t="inlineStr"/>
+      <c r="F1674" s="7" t="inlineStr"/>
       <c r="H1674" s="8" t="inlineStr"/>
     </row>
     <row r="1675">
@@ -36164,7 +35235,7 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1675" s="6" t="inlineStr">
@@ -36172,12 +35243,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1675" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1675" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1675" s="7" t="inlineStr"/>
+      <c r="F1675" s="7" t="inlineStr"/>
       <c r="H1675" s="8" t="inlineStr"/>
     </row>
     <row r="1677">
@@ -36310,7 +35377,7 @@
       </c>
       <c r="C1685" s="6" t="inlineStr">
         <is>
-          <t>Reach-In Refrigerator</t>
+          <t>REACH-IN REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr">
@@ -36414,7 +35481,7 @@
       </c>
       <c r="C1691" s="6" t="inlineStr">
         <is>
-          <t>Reach-In Refrigerator</t>
+          <t>REACH-IN REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr">
@@ -36518,7 +35585,7 @@
       </c>
       <c r="C1697" s="6" t="inlineStr">
         <is>
-          <t>Reach-In Freezer</t>
+          <t>REACH-IN FREEZER</t>
         </is>
       </c>
       <c r="D1697" t="inlineStr">
@@ -36675,7 +35742,7 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1705" s="6" t="inlineStr">
@@ -36683,12 +35750,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1705" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1705" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1705" s="7" t="inlineStr"/>
+      <c r="F1705" s="7" t="inlineStr"/>
       <c r="H1705" s="8" t="inlineStr"/>
     </row>
     <row r="1706">
@@ -36987,7 +36050,7 @@
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1718" s="6" t="inlineStr">
@@ -36995,12 +36058,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1718" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1718" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1718" s="7" t="inlineStr"/>
+      <c r="F1718" s="7" t="inlineStr"/>
       <c r="H1718" s="8" t="inlineStr"/>
     </row>
     <row r="1719">
@@ -37011,7 +36070,7 @@
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1719" s="6" t="inlineStr">
@@ -37019,12 +36078,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1719" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1719" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1719" s="7" t="inlineStr"/>
+      <c r="F1719" s="7" t="inlineStr"/>
       <c r="H1719" s="8" t="inlineStr"/>
     </row>
     <row r="1720">
@@ -37069,7 +36124,7 @@
       </c>
       <c r="C1721" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerated / Freezer EQUIPMENT STAND </t>
+          <t xml:space="preserve">REFRIGERATED / FREEZER EQUIPMENT STAND </t>
         </is>
       </c>
       <c r="D1721" t="inlineStr">
@@ -37463,7 +36518,7 @@
       </c>
       <c r="C1741" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Freezer</t>
+          <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
       <c r="D1741" t="inlineStr">
@@ -37576,7 +36631,7 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1747" s="6" t="inlineStr">
@@ -37584,12 +36639,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1747" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1747" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1747" s="7" t="inlineStr"/>
+      <c r="F1747" s="7" t="inlineStr"/>
       <c r="H1747" s="8" t="inlineStr"/>
     </row>
     <row r="1748">
@@ -37687,7 +36738,7 @@
       </c>
       <c r="C1751" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Freezer</t>
+          <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
       <c r="D1751" t="inlineStr">
@@ -37939,7 +36990,7 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1765" s="6" t="inlineStr">
@@ -37947,12 +36998,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1765" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1765" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1765" s="7" t="inlineStr"/>
+      <c r="F1765" s="7" t="inlineStr"/>
       <c r="H1765" s="8" t="inlineStr"/>
     </row>
     <row r="1766">
@@ -37963,7 +37010,7 @@
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1766" s="6" t="inlineStr">
@@ -37971,12 +37018,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1766" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1766" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1766" s="7" t="inlineStr"/>
+      <c r="F1766" s="7" t="inlineStr"/>
       <c r="H1766" s="8" t="inlineStr"/>
     </row>
     <row r="1767">
@@ -38066,7 +37109,7 @@
       </c>
       <c r="C1771" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1771" t="inlineStr">
@@ -38170,7 +37213,7 @@
       </c>
       <c r="C1777" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerated / Freezer EQUIPMENT STAND </t>
+          <t xml:space="preserve">REFRIGERATED / FREEZER EQUIPMENT STAND </t>
         </is>
       </c>
       <c r="D1777" t="inlineStr">
@@ -38293,7 +37336,7 @@
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1783" s="6" t="inlineStr">
@@ -38301,12 +37344,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1783" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1783" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1783" s="7" t="inlineStr"/>
+      <c r="F1783" s="7" t="inlineStr"/>
       <c r="H1783" s="8" t="inlineStr"/>
     </row>
     <row r="1784">
@@ -38370,7 +37409,7 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1786" s="6" t="inlineStr">
@@ -38378,12 +37417,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1786" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1786" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1786" s="7" t="inlineStr"/>
+      <c r="F1786" s="7" t="inlineStr"/>
       <c r="H1786" s="8" t="inlineStr"/>
     </row>
     <row r="1787">
@@ -38436,11 +37471,15 @@
           <t>BY OS&amp;E</t>
         </is>
       </c>
-      <c r="E1788" s="7" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="F1788" s="7" t="n">
-        <v>81.79000000000001</v>
+      <c r="E1788" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1788" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1788" s="8" t="inlineStr"/>
     </row>
@@ -38457,7 +37496,7 @@
       </c>
       <c r="C1789" s="6" t="inlineStr">
         <is>
-          <t>Water Filtration System</t>
+          <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
       <c r="D1789" t="inlineStr">
@@ -38496,7 +37535,7 @@
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1791" s="6" t="inlineStr">
@@ -38504,12 +37543,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1791" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1791" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1791" s="7" t="inlineStr"/>
+      <c r="F1791" s="7" t="inlineStr"/>
       <c r="H1791" s="8" t="inlineStr"/>
     </row>
     <row r="1792">
@@ -38520,7 +37555,7 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1792" s="6" t="inlineStr">
@@ -38528,12 +37563,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1792" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1792" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1792" s="7" t="inlineStr"/>
+      <c r="F1792" s="7" t="inlineStr"/>
       <c r="H1792" s="8" t="inlineStr"/>
     </row>
     <row r="1793">
@@ -38557,11 +37588,15 @@
           <t>BY OS&amp;E</t>
         </is>
       </c>
-      <c r="E1793" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="F1793" s="7" t="n">
-        <v>92</v>
+      <c r="E1793" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1793" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1793" s="8" t="inlineStr"/>
     </row>
@@ -38593,7 +37628,7 @@
       </c>
       <c r="C1795" s="6" t="inlineStr">
         <is>
-          <t>Cup Dispenser</t>
+          <t>CUP DISPENSER</t>
         </is>
       </c>
       <c r="D1795" t="inlineStr">
@@ -38601,11 +37636,15 @@
           <t>BY OS&amp;E</t>
         </is>
       </c>
-      <c r="E1795" s="7" t="n">
-        <v>90</v>
-      </c>
-      <c r="F1795" s="7" t="n">
-        <v>90</v>
+      <c r="E1795" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1795" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1795" s="8" t="inlineStr"/>
     </row>
@@ -38674,11 +37713,15 @@
           <t>BY VENDOR</t>
         </is>
       </c>
-      <c r="E1798" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1798" s="7" t="n">
-        <v>0</v>
+      <c r="E1798" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1798" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1798" s="8" t="inlineStr"/>
     </row>
@@ -38690,7 +37733,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1799" s="6" t="inlineStr">
@@ -38698,12 +37741,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1799" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1799" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1799" s="7" t="inlineStr"/>
+      <c r="F1799" s="7" t="inlineStr"/>
       <c r="H1799" s="8" t="inlineStr"/>
     </row>
     <row r="1800">
@@ -38876,7 +37915,7 @@
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1808" s="6" t="inlineStr">
@@ -38884,12 +37923,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1808" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1808" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1808" s="7" t="inlineStr"/>
+      <c r="F1808" s="7" t="inlineStr"/>
       <c r="H1808" s="8" t="inlineStr"/>
     </row>
     <row r="1809">
@@ -38900,7 +37935,7 @@
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1809" s="6" t="inlineStr">
@@ -38908,12 +37943,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1809" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1809" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1809" s="7" t="inlineStr"/>
+      <c r="F1809" s="7" t="inlineStr"/>
       <c r="H1809" s="8" t="inlineStr"/>
     </row>
     <row r="1810">
@@ -39249,7 +38280,7 @@
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1827" s="6" t="inlineStr">
@@ -39257,12 +38288,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1827" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1827" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1827" s="7" t="inlineStr"/>
+      <c r="F1827" s="7" t="inlineStr"/>
       <c r="H1827" s="8" t="inlineStr"/>
     </row>
     <row r="1828">
@@ -39480,7 +38507,7 @@
       </c>
       <c r="B1839" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1839" s="6" t="inlineStr">
@@ -39488,12 +38515,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1839" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1839" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1839" s="7" t="inlineStr"/>
+      <c r="F1839" s="7" t="inlineStr"/>
       <c r="H1839" s="8" t="inlineStr"/>
     </row>
     <row r="1840">
@@ -39504,7 +38527,7 @@
       </c>
       <c r="B1840" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1840" s="6" t="inlineStr">
@@ -39512,12 +38535,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1840" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1840" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1840" s="7" t="inlineStr"/>
+      <c r="F1840" s="7" t="inlineStr"/>
       <c r="H1840" s="8" t="inlineStr"/>
     </row>
     <row r="1841">
@@ -39652,7 +38671,7 @@
       </c>
       <c r="C1848" s="6" t="inlineStr">
         <is>
-          <t>Hot Food Well Unit</t>
+          <t>HOT FOOD WELL UNIT</t>
         </is>
       </c>
       <c r="D1848" t="inlineStr">
@@ -40101,7 +39120,7 @@
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1872" s="6" t="inlineStr">
@@ -40109,12 +39128,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1872" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1872" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1872" s="7" t="inlineStr"/>
+      <c r="F1872" s="7" t="inlineStr"/>
       <c r="H1872" s="8" t="inlineStr"/>
     </row>
     <row r="1873">
@@ -40138,11 +39153,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1873" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1873" s="7" t="n">
-        <v>0</v>
+      <c r="E1873" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1873" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1873" s="8" t="inlineStr"/>
     </row>
@@ -40196,11 +39215,15 @@
           <t>OS&amp;E</t>
         </is>
       </c>
-      <c r="E1875" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1875" s="7" t="n">
-        <v>0</v>
+      <c r="E1875" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F1875" s="7" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="H1875" s="8" t="inlineStr"/>
     </row>
@@ -40241,7 +39264,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1877" s="6" t="inlineStr">
@@ -40249,12 +39272,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1877" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1877" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1877" s="7" t="inlineStr"/>
+      <c r="F1877" s="7" t="inlineStr"/>
       <c r="H1877" s="8" t="inlineStr"/>
     </row>
     <row r="1878">
@@ -40265,7 +39284,7 @@
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1878" s="6" t="inlineStr">
@@ -40273,12 +39292,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1878" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1878" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1878" s="7" t="inlineStr"/>
+      <c r="F1878" s="7" t="inlineStr"/>
       <c r="H1878" s="8" t="inlineStr"/>
     </row>
     <row r="1880">
@@ -40440,7 +39455,7 @@
       </c>
       <c r="C1889" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D1889" t="inlineStr">
@@ -40552,7 +39567,7 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1894" s="6" t="inlineStr">
@@ -40560,12 +39575,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1894" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1894" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1894" s="7" t="inlineStr"/>
+      <c r="F1894" s="7" t="inlineStr"/>
       <c r="H1894" s="8" t="inlineStr"/>
     </row>
     <row r="1895">
@@ -40654,7 +39665,7 @@
       </c>
       <c r="C1898" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D1898" t="inlineStr">
@@ -40797,7 +39808,7 @@
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1906" s="6" t="inlineStr">
@@ -40805,12 +39816,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1906" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1906" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1906" s="7" t="inlineStr"/>
+      <c r="F1906" s="7" t="inlineStr"/>
       <c r="H1906" s="8" t="inlineStr"/>
     </row>
     <row r="1907">
@@ -40821,7 +39828,7 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1907" s="6" t="inlineStr">
@@ -40829,12 +39836,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1907" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1907" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1907" s="7" t="inlineStr"/>
+      <c r="F1907" s="7" t="inlineStr"/>
       <c r="H1907" s="8" t="inlineStr"/>
     </row>
     <row r="1908">
@@ -40981,7 +39984,7 @@
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1913" s="6" t="inlineStr">
@@ -40989,12 +39992,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1913" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1913" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1913" s="7" t="inlineStr"/>
+      <c r="F1913" s="7" t="inlineStr"/>
       <c r="H1913" s="8" t="inlineStr"/>
     </row>
     <row r="1914">
@@ -41083,7 +40082,7 @@
       </c>
       <c r="C1917" s="6" t="inlineStr">
         <is>
-          <t>Trash Receptacle Lid / Top</t>
+          <t>TRASH RECEPTACLE LID / TOP</t>
         </is>
       </c>
       <c r="D1917" t="inlineStr">
@@ -41136,7 +40135,7 @@
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1919" s="6" t="inlineStr">
@@ -41144,12 +40143,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1919" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1919" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1919" s="7" t="inlineStr"/>
+      <c r="F1919" s="7" t="inlineStr"/>
       <c r="H1919" s="8" t="inlineStr"/>
     </row>
     <row r="1920">
@@ -41160,7 +40155,7 @@
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1920" s="6" t="inlineStr">
@@ -41168,12 +40163,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1920" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1920" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1920" s="7" t="inlineStr"/>
+      <c r="F1920" s="7" t="inlineStr"/>
       <c r="H1920" s="8" t="inlineStr"/>
     </row>
     <row r="1921">
@@ -41189,7 +40180,7 @@
       </c>
       <c r="C1921" s="6" t="inlineStr">
         <is>
-          <t>Floor Trough And Grate</t>
+          <t>FLOOR TROUGH AND GRATE</t>
         </is>
       </c>
       <c r="D1921" t="inlineStr">
@@ -41340,7 +40331,7 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1927" s="6" t="inlineStr">
@@ -41348,12 +40339,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1927" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1927" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1927" s="7" t="inlineStr"/>
+      <c r="F1927" s="7" t="inlineStr"/>
       <c r="H1927" s="8" t="inlineStr"/>
     </row>
     <row r="1928">
@@ -41766,7 +40753,7 @@
       </c>
       <c r="C1952" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr">
@@ -41805,7 +40792,7 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1954" s="6" t="inlineStr">
@@ -41813,12 +40800,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1954" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1954" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1954" s="7" t="inlineStr"/>
+      <c r="F1954" s="7" t="inlineStr"/>
       <c r="H1954" s="8" t="inlineStr"/>
     </row>
     <row r="1955">
@@ -41906,7 +40889,7 @@
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1958" s="6" t="inlineStr">
@@ -41914,12 +40897,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1958" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1958" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1958" s="7" t="inlineStr"/>
+      <c r="F1958" s="7" t="inlineStr"/>
       <c r="H1958" s="8" t="inlineStr"/>
     </row>
     <row r="1959">
@@ -41930,7 +40909,7 @@
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1959" s="6" t="inlineStr">
@@ -41938,12 +40917,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1959" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1959" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1959" s="7" t="inlineStr"/>
+      <c r="F1959" s="7" t="inlineStr"/>
       <c r="H1959" s="8" t="inlineStr"/>
     </row>
     <row r="1960">
@@ -42012,7 +40987,7 @@
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1962" s="6" t="inlineStr">
@@ -42020,12 +40995,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1962" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1962" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1962" s="7" t="inlineStr"/>
+      <c r="F1962" s="7" t="inlineStr"/>
       <c r="H1962" s="8" t="inlineStr"/>
     </row>
     <row r="1963">
@@ -42036,7 +41007,7 @@
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1963" s="6" t="inlineStr">
@@ -42044,12 +41015,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1963" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1963" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1963" s="7" t="inlineStr"/>
+      <c r="F1963" s="7" t="inlineStr"/>
       <c r="H1963" s="8" t="inlineStr"/>
     </row>
     <row r="1964">
@@ -42060,7 +41027,7 @@
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1964" s="6" t="inlineStr">
@@ -42068,12 +41035,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1964" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1964" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1964" s="7" t="inlineStr"/>
+      <c r="F1964" s="7" t="inlineStr"/>
       <c r="H1964" s="8" t="inlineStr"/>
     </row>
     <row r="1966">
@@ -42213,7 +41176,7 @@
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1972" s="6" t="inlineStr">
@@ -42221,12 +41184,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1972" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1972" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1972" s="7" t="inlineStr"/>
+      <c r="F1972" s="7" t="inlineStr"/>
       <c r="H1972" s="8" t="inlineStr"/>
     </row>
     <row r="1973">
@@ -42271,7 +41230,7 @@
       </c>
       <c r="C1974" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr">
@@ -42345,7 +41304,7 @@
       </c>
       <c r="C1978" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr">
@@ -42389,7 +41348,7 @@
       </c>
       <c r="C1980" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr">
@@ -42433,7 +41392,7 @@
       </c>
       <c r="C1982" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr">
@@ -42502,7 +41461,7 @@
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1986" s="6" t="inlineStr">
@@ -42510,12 +41469,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1986" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1986" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1986" s="7" t="inlineStr"/>
+      <c r="F1986" s="7" t="inlineStr"/>
       <c r="H1986" s="8" t="inlineStr"/>
     </row>
     <row r="1987">
@@ -42531,7 +41486,7 @@
       </c>
       <c r="C1987" s="6" t="inlineStr">
         <is>
-          <t>Disposable Cup Dispenser</t>
+          <t>DISPOSABLE CUP DISPENSER</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr">
@@ -42570,7 +41525,7 @@
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1989" s="6" t="inlineStr">
@@ -42578,12 +41533,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1989" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1989" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1989" s="7" t="inlineStr"/>
+      <c r="F1989" s="7" t="inlineStr"/>
       <c r="H1989" s="8" t="inlineStr"/>
     </row>
     <row r="1990">
@@ -42594,7 +41545,7 @@
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1990" s="6" t="inlineStr">
@@ -42602,12 +41553,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E1990" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1990" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E1990" s="7" t="inlineStr"/>
+      <c r="F1990" s="7" t="inlineStr"/>
       <c r="H1990" s="8" t="inlineStr"/>
     </row>
     <row r="1991">
@@ -42623,7 +41570,7 @@
       </c>
       <c r="C1991" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr">
@@ -42829,7 +41776,7 @@
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2001" s="6" t="inlineStr">
@@ -42837,12 +41784,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2001" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2001" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2001" s="7" t="inlineStr"/>
+      <c r="F2001" s="7" t="inlineStr"/>
       <c r="H2001" s="8" t="inlineStr"/>
     </row>
     <row r="2003">
@@ -42982,7 +41925,7 @@
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2009" s="6" t="inlineStr">
@@ -42990,12 +41933,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2009" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2009" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2009" s="7" t="inlineStr"/>
+      <c r="F2009" s="7" t="inlineStr"/>
       <c r="H2009" s="8" t="inlineStr"/>
     </row>
     <row r="2010">
@@ -43040,7 +41979,7 @@
       </c>
       <c r="C2011" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr">
@@ -43114,7 +42053,7 @@
       </c>
       <c r="C2015" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr">
@@ -43158,7 +42097,7 @@
       </c>
       <c r="C2017" s="6" t="inlineStr">
         <is>
-          <t>Microwave Oven</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr">
@@ -43202,7 +42141,7 @@
       </c>
       <c r="C2019" s="6" t="inlineStr">
         <is>
-          <t>Ice &amp; Water Dispenser</t>
+          <t>ICE &amp; WATER DISPENSER</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr">
@@ -43271,7 +42210,7 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2023" s="6" t="inlineStr">
@@ -43279,12 +42218,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2023" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2023" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2023" s="7" t="inlineStr"/>
+      <c r="F2023" s="7" t="inlineStr"/>
       <c r="H2023" s="8" t="inlineStr"/>
     </row>
     <row r="2024">
@@ -43300,7 +42235,7 @@
       </c>
       <c r="C2024" s="6" t="inlineStr">
         <is>
-          <t>Disposable Cup Dispenser</t>
+          <t>DISPOSABLE CUP DISPENSER</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr">
@@ -43339,7 +42274,7 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2026" s="6" t="inlineStr">
@@ -43347,12 +42282,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2026" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2026" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2026" s="7" t="inlineStr"/>
+      <c r="F2026" s="7" t="inlineStr"/>
       <c r="H2026" s="8" t="inlineStr"/>
     </row>
     <row r="2027">
@@ -43363,7 +42294,7 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2027" s="6" t="inlineStr">
@@ -43371,12 +42302,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2027" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2027" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2027" s="7" t="inlineStr"/>
+      <c r="F2027" s="7" t="inlineStr"/>
       <c r="H2027" s="8" t="inlineStr"/>
     </row>
     <row r="2028">
@@ -43392,7 +42319,7 @@
       </c>
       <c r="C2028" s="6" t="inlineStr">
         <is>
-          <t>Undercounter Refrigerator</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr">
@@ -43598,7 +42525,7 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2038" s="6" t="inlineStr">
@@ -43606,12 +42533,8 @@
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E2038" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2038" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2038" s="7" t="inlineStr"/>
+      <c r="F2038" s="7" t="inlineStr"/>
       <c r="H2038" s="8" t="inlineStr"/>
     </row>
     <row r="2039">
@@ -43628,59 +42551,59 @@
           <t>Equipment SubTotal</t>
         </is>
       </c>
-      <c r="F2040" s="7">
-        <f>SUM(F7:F2039)</f>
+      <c r="F2040" s="13">
+        <f>SUM(F6:F2039)</f>
         <v/>
       </c>
     </row>
     <row r="2041">
       <c r="D2041" s="11" t="n"/>
-      <c r="E2041" s="13" t="inlineStr">
+      <c r="E2041" s="14" t="inlineStr">
         <is>
           <t>Delivery, Installation, Set-in Place</t>
         </is>
       </c>
-      <c r="F2041" s="14">
-        <f>F2040*.18</f>
+      <c r="F2041" s="15">
+        <f>F2040*0.4</f>
         <v/>
       </c>
     </row>
     <row r="2042">
-      <c r="E2042" s="15" t="inlineStr">
+      <c r="E2042" s="16" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F2042" s="16">
+      <c r="F2042" s="17">
         <f>SUM(F2040:F2041)</f>
         <v/>
       </c>
     </row>
     <row r="2045">
-      <c r="A2045" s="17" t="inlineStr">
+      <c r="A2045" s="18" t="inlineStr">
         <is>
           <t>QUALIFICATIONS</t>
         </is>
       </c>
     </row>
     <row r="2046">
-      <c r="A2046" s="18" t="inlineStr">
+      <c r="A2046" s="19" t="inlineStr">
         <is>
           <t>1. Price does not include project contingency.</t>
         </is>
       </c>
     </row>
     <row r="2047">
-      <c r="A2047" s="18" t="inlineStr">
+      <c r="A2047" s="19" t="inlineStr">
         <is>
           <t>2. Price does not include sales tax or use taxes.</t>
         </is>
       </c>
     </row>
     <row r="2048">
-      <c r="A2048" s="18" t="inlineStr">
-        <is>
-          <t>3. Price is good through _____________</t>
+      <c r="A2048" s="19" t="inlineStr">
+        <is>
+          <t>3. Price is good through NEVER</t>
         </is>
       </c>
     </row>
